--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10_재비산.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_PM10_재비산</t>
+  </si>
+  <si>
+    <t>02_taxi_PM10_재비산</t>
+  </si>
+  <si>
+    <t>03_van_PM10_재비산</t>
+  </si>
+  <si>
+    <t>04_bus_PM10_재비산</t>
+  </si>
+  <si>
+    <t>05_LightTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_PM10_재비산</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_PM10_재비산</t>
+  </si>
+  <si>
+    <t>Total_PM10_재비산 (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1270 +397,1351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_PM10_재비산</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_PM10_재비산 (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024121610</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>4.39214796182776</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.5154492817869332</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>2.278699538032412</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>1.968397333439982</v>
+      </c>
+      <c r="F2">
         <v>2.391699731756916</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>5.455311455048246</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>0.1380260559416554</v>
       </c>
-      <c r="H2" t="n">
-        <v>15.17133402439392</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>17.1397313578339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024121611</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>4.401473116736103</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.5927666740549731</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2.278699538032412</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="F3">
         <v>2.462043841514472</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>4.608797608575242</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>0.1380260559416554</v>
       </c>
-      <c r="H3" t="n">
-        <v>14.48180683485485</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>16.5357866610531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024121612</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>4.494724665819492</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.3608144972508532</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1.519133025354941</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>1.626067362406941</v>
+      </c>
+      <c r="F4">
         <v>1.78205078052476</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>3.103884103734346</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H4" t="n">
-        <v>11.35262444331216</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>12.97869180571911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024121613</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>5.212761593761611</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.7989463867697463</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>3.038266050709882</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>1.540484869648681</v>
+      </c>
+      <c r="F5">
         <v>2.579284024443731</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>3.480112479944571</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>0.2300434265694257</v>
       </c>
-      <c r="H5" t="n">
-        <v>15.33941396219897</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>16.87989883184765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024121614</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>5.473865931195109</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.4896768176975864</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>2.869473492337111</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>1.626067362406941</v>
+      </c>
+      <c r="F6">
         <v>2.696524207372993</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>3.197941197786904</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>0.1380260559416554</v>
       </c>
-      <c r="H6" t="n">
-        <v>14.86550770233136</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>16.4915750647383</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024121615</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>5.399264691928394</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.00512609948452</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>2.194303258846026</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="F7">
         <v>2.579284024443731</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>3.103884103734346</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>0.1380260559416554</v>
       </c>
-      <c r="H7" t="n">
-        <v>14.41988823437867</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>16.47386806057692</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024121616</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>6.313129872945636</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.133988419931253</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3.038266050709882</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>2.139562318956502</v>
+      </c>
+      <c r="F8">
         <v>1.922739000039873</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>2.351427351313899</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>0.3220607971971959</v>
       </c>
-      <c r="H8" t="n">
-        <v>15.08161149213774</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>17.22117381109424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024121617</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>7.310921448137934</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.3092695690721599</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1.856718142100483</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>1.882814840681722</v>
+      </c>
+      <c r="F9">
         <v>1.430330231736979</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>1.975198975103675</v>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>12.88243836615123</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>14.76525320683295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024121618</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>6.984541026346058</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.1804072486254266</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>1.772321862914098</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>3.080969739297363</v>
+      </c>
+      <c r="F10">
         <v>1.148953792706753</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>1.034628034578116</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H10" t="n">
-        <v>11.16686065048434</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>14.2478303897817</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024121619</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>5.044908805411505</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.15463478453608</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1.434736746168555</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>2.567474782747802</v>
+      </c>
+      <c r="F11">
         <v>0.5158568048887464</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>1.598970598893452</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H11" t="n">
-        <v>8.795116425212223</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>11.36259120796003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024121620</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>4.532025285452849</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.4639043536082399</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1.265944187795784</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>2.225144811714762</v>
+      </c>
+      <c r="F12">
         <v>0.4924087683028943</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>0.8465138464730039</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H12" t="n">
-        <v>7.646805126946656</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>9.871949938661418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024121621</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>3.301104837552074</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.1030898563573866</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>1.097151629423013</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>2.225144811714762</v>
+      </c>
+      <c r="F13">
         <v>0.3751685853736337</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>0.7524567524204477</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H13" t="n">
-        <v>5.67498034644044</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>7.900125158155201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024121622</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>1.697178193317734</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.05154492817869331</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>0.4219813959319281</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>1.454902376890421</v>
+      </c>
+      <c r="F14">
         <v>0.2813764390302253</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>0.2821712821576679</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>2.734252238616248</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>4.18915461550667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024121623</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1.380122926434201</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.1804072486254266</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>0.6751702334910848</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>0.5134949565495605</v>
+      </c>
+      <c r="F15">
         <v>0.7034410975755631</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>0.4702854702627799</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>3.409426976389055</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>3.922921932938616</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024121700</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>1.128343743909042</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.15463478453608</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="n">
+      <c r="F16">
         <v>0.3048244756160774</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>0.4702854702627799</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
+      <c r="I16">
         <v>2.05808847432398</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024121701</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>0.6154602239503871</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.02577246408934666</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>0.2531888375591568</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17">
         <v>0.211032329272669</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>0.1881141881051119</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
+      <c r="I17">
         <v>1.293568042976672</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024121702</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>0.4849080552336381</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.02577246408934666</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>0.08439627918638561</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18">
         <v>0.1172401829292605</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>0.3762283762102239</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
+      <c r="I18">
         <v>1.088545357648855</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024121703</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>0.4662577454169597</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.1288623204467333</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>0.1687925583727712</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
+        <v>0.3423299710330403</v>
+      </c>
+      <c r="F19">
         <v>0.2813764390302253</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>0.3762283762102239</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
-        <v>1.421517439476913</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
+      <c r="I19">
+        <v>1.763847410509954</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024121704</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>0.8579142515672064</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.05154492817869331</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
+      <c r="F20">
         <v>0.2579284024443732</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>0.8465138464730039</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
+      <c r="I20">
         <v>2.013901428663277</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024121705</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2.89079802158515</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.07731739226803998</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>1.856718142100483</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>0.5134949565495605</v>
+      </c>
+      <c r="F21">
         <v>0.867577353676528</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>0.8465138464730039</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H21" t="n">
-        <v>6.630942126730975</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>7.144437083280535</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024121706</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>4.951657256328112</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.07731739226803998</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2.447492096405183</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="F22">
         <v>1.547570414666239</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>2.915769915629236</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H22" t="n">
-        <v>11.98581576061069</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>14.9812030071498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024121707</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>6.397056267120689</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.07731739226803998</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>1.181547908609399</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>2.738639768264322</v>
+      </c>
+      <c r="F23">
         <v>0.9144734268482323</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>1.504913504840895</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H23" t="n">
-        <v>10.16732587031503</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>12.90596563857935</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024121708</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>6.201228014045566</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.4123594254295465</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>2.025510700473255</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>2.396309797231282</v>
+      </c>
+      <c r="F24">
         <v>1.266193975636013</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>2.727655727524123</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>0.1380260559416554</v>
       </c>
-      <c r="H24" t="n">
-        <v>12.77097389905016</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>15.16728369628144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024121709</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>5.361964072295039</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.5669942099656264</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>1.603529304541327</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>3.936794666879964</v>
+      </c>
+      <c r="F25">
         <v>2.274459548827655</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>2.727655727524123</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>0.4140781678249662</v>
       </c>
-      <c r="H25" t="n">
-        <v>12.94868103097874</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>16.8854756978587</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024121710</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>4.522700130544507</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.4381318895188931</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>2.025510700473255</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>1.968397333439982</v>
+      </c>
+      <c r="F26">
         <v>2.55583598785788</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>6.489939489626361</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>0.1380260559416554</v>
       </c>
-      <c r="H26" t="n">
-        <v>16.17014425396255</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>18.13854158740253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024121711</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>4.270920948019354</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.6700840663230131</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>2.025510700473255</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>1.711649855165201</v>
+      </c>
+      <c r="F27">
         <v>2.790316353716401</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>5.925596925311027</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H27" t="n">
-        <v>15.77444636447082</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>17.48609621963602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024121712</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>4.224295173477655</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.2834971049828132</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>1.181547908609399</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="F28">
         <v>1.500674341494535</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>3.197941197786904</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>0.1380260559416554</v>
       </c>
-      <c r="H28" t="n">
-        <v>10.52598178229296</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>12.5799616084912</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024121713</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>5.22208674866995</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.7989463867697463</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>3.797832563387352</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>2.567474782747802</v>
+      </c>
+      <c r="F29">
         <v>2.462043841514472</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>4.796911796680354</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>0.3680694825110811</v>
       </c>
-      <c r="H29" t="n">
-        <v>17.44589081953296</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>20.01336560228076</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024121714</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>4.653252299261259</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.3865869613402</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>3.038266050709882</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>1.369319884132161</v>
+      </c>
+      <c r="F30">
         <v>2.743420280544697</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>2.351427351313899</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>0.1840347412555406</v>
       </c>
-      <c r="H30" t="n">
-        <v>13.35698768442548</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>14.72630756855764</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024121715</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>5.557792325370158</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.6700840663230131</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>2.953869771523497</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>1.711649855165201</v>
+      </c>
+      <c r="F31">
         <v>2.344803658585211</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>3.291998291839459</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>0.2300434265694257</v>
       </c>
-      <c r="H31" t="n">
-        <v>15.04859154021076</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>16.76024139537596</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024121716</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>6.453007196570721</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.9535811713058264</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>2.785077213150725</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="F32">
         <v>1.922739000039873</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>4.232569232365019</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>0.2300434265694257</v>
       </c>
-      <c r="H32" t="n">
-        <v>16.57701724000159</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>18.63099706619984</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024121717</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>7.422823307037998</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.2319521768041199</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>1.35034046698217</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>1.711649855165201</v>
+      </c>
+      <c r="F33">
         <v>1.242745939050162</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>1.787084786998563</v>
       </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="n">
-        <v>12.03494667687301</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>13.74659653203821</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024121718</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>7.702577954288175</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.07731739226803998</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>1.181547908609399</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="F34">
         <v>1.266193975636013</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>0.6583996583678919</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H34" t="n">
-        <v>10.97805425979729</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>13.97344150633639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024121719</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>5.389939537020056</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.07731739226803998</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>1.097151629423013</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>2.310727304473023</v>
+      </c>
+      <c r="F35">
         <v>0.656545024403859</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>1.975198975103675</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H35" t="n">
-        <v>9.288169928846413</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>11.59889723331944</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024121720</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>5.128835199586558</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.15463478453608</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>0.7595665126774706</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>2.824222261022583</v>
+      </c>
+      <c r="F36">
         <v>0.5627528780604506</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>0.8465138464730039</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H36" t="n">
-        <v>7.544320591961334</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>10.36854285298392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024121721</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>3.618160104435608</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.05154492817869331</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>0.9283590710502417</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>2.053979826198242</v>
+      </c>
+      <c r="F37">
         <v>0.7503371707472674</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>0.9405709405255599</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37">
         <v>0.09201737062777028</v>
       </c>
-      <c r="H37" t="n">
-        <v>6.38098958556514</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>8.434969411763383</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024121722</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>1.865030981667839</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.05154492817869331</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>0.4219813959319281</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>1.454902376890421</v>
+      </c>
+      <c r="F38">
         <v>0.3282725122019295</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>0.4702854702627799</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>3.137115288243169</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>4.592017665133591</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024121723</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>1.61325179914268</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.2834971049828132</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>0.7595665126774706</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>0.3423299710330403</v>
+      </c>
+      <c r="F39">
         <v>0.5158568048887464</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>0.3762283762102239</v>
       </c>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="n">
-        <v>3.548400597901934</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>3.890730568934974</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024121800</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>1.240245602809113</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.2834971049828132</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="n">
+      <c r="F40">
         <v>0.398616621959486</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>0.6583996583678919</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
+      <c r="I40">
         <v>2.580758988119304</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024121801</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>0.7646627024838141</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.02577246408934666</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>0.2531888375591568</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41">
         <v>0.211032329272669</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>0.2821712821576679</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
+      <c r="I41">
         <v>1.536827615562654</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024121802</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>0.6527608435837438</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.02577246408934666</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>0.1687925583727712</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42">
         <v>0.1172401829292605</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>0.3762283762102239</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
+      <c r="I42">
         <v>1.340794425185346</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024121803</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>0.4755829003252989</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.07731739226803998</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>0.1687925583727712</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
+        <v>0.1711649855165202</v>
+      </c>
+      <c r="F43">
         <v>0.211032329272669</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>0.5643425643153358</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
-        <v>1.497067744554115</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
+      <c r="I43">
+        <v>1.668232730070635</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024121804</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>0.8485890966588668</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.05154492817869331</v>
       </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="n">
+      <c r="F44">
         <v>0.2813764390302253</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>1.034628034578116</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
+      <c r="I44">
         <v>2.216138498445901</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024121805</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>2.909448331401828</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.07731739226803998</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>1.012755350236627</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>0.4279124637913003</v>
+      </c>
+      <c r="F45">
         <v>1.172401829292606</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>0.8465138464730039</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45">
         <v>0.1840347412555406</v>
       </c>
-      <c r="H45" t="n">
-        <v>6.202471490927644</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>6.630383954718946</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024121806</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>5.110184889769878</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.02577246408934666</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>1.603529304541327</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>2.995387246539103</v>
+      </c>
+      <c r="F46">
         <v>1.571018451252091</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>3.856340856154794</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H46" t="n">
-        <v>12.21285465112132</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>15.20824189766042</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024121807</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>6.50895812602076</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.07731739226803998</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>1.434736746168555</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>2.567474782747802</v>
+      </c>
+      <c r="F47">
         <v>0.820681280504824</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>1.693027692946008</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>0.04600868531388514</v>
       </c>
-      <c r="H47" t="n">
-        <v>10.58072992322207</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>13.14820470596987</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024121808</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>5.949448831520404</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.4381318895188931</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>2.278699538032412</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>2.653057275506062</v>
+      </c>
+      <c r="F48">
         <v>1.313090048807718</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>2.445484445366455</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>0.1840347412555406</v>
       </c>
-      <c r="H48" t="n">
-        <v>12.60888949450142</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>15.26194677000749</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024121809</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>5.361964072295039</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.5669942099656264</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>1.603529304541327</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>3.936794666879964</v>
+      </c>
+      <c r="F49">
         <v>2.274459548827655</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>2.727655727524123</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>0.4140781678249662</v>
       </c>
-      <c r="H49" t="n">
-        <v>12.94868103097874</v>
+      <c r="I49">
+        <v>16.8854756978587</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>4.39214796182776</v>
+        <v>19.46789907404738</v>
       </c>
       <c r="C2">
-        <v>0.5154492817869332</v>
+        <v>2.284694113866406</v>
       </c>
       <c r="D2">
-        <v>2.278699538032412</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="E2">
-        <v>1.968397333439982</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="F2">
-        <v>2.391699731756916</v>
+        <v>10.6010474596793</v>
       </c>
       <c r="G2">
-        <v>5.455311455048246</v>
+        <v>24.18029942237601</v>
       </c>
       <c r="H2">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I2">
-        <v>17.1397313578339</v>
+        <v>75.97070115364218</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>4.401473116736103</v>
+        <v>19.50923219310055</v>
       </c>
       <c r="C3">
-        <v>0.5927666740549731</v>
+        <v>2.627398230946367</v>
       </c>
       <c r="D3">
-        <v>2.278699538032412</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="E3">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F3">
-        <v>2.462043841514472</v>
+        <v>10.91284297319928</v>
       </c>
       <c r="G3">
-        <v>4.608797608575242</v>
+        <v>20.42818399476594</v>
       </c>
       <c r="H3">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I3">
-        <v>16.5357866610531</v>
+        <v>73.29375709223534</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>4.494724665819492</v>
+        <v>19.92256338363234</v>
       </c>
       <c r="C4">
-        <v>0.3608144972508532</v>
+        <v>1.599285879706484</v>
       </c>
       <c r="D4">
-        <v>1.519133025354941</v>
+        <v>6.733454490762441</v>
       </c>
       <c r="E4">
-        <v>1.626067362406941</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="F4">
-        <v>1.78205078052476</v>
+        <v>7.898819675839478</v>
       </c>
       <c r="G4">
-        <v>3.103884103734346</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="H4">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I4">
-        <v>12.97869180571911</v>
+        <v>57.52717449021441</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>5.212761593761611</v>
+        <v>23.10521355072713</v>
       </c>
       <c r="C5">
-        <v>0.7989463867697463</v>
+        <v>3.541275876492929</v>
       </c>
       <c r="D5">
-        <v>3.038266050709882</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="E5">
-        <v>1.540484869648681</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="F5">
-        <v>2.579284024443731</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="G5">
-        <v>3.480112479944571</v>
+        <v>15.42536342461918</v>
       </c>
       <c r="H5">
-        <v>0.2300434265694257</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I5">
-        <v>16.87989883184765</v>
+        <v>74.81901103845983</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>5.473865931195109</v>
+        <v>24.26254088421614</v>
       </c>
       <c r="C6">
-        <v>0.4896768176975864</v>
+        <v>2.170459408173086</v>
       </c>
       <c r="D6">
-        <v>2.869473492337111</v>
+        <v>12.71874737144017</v>
       </c>
       <c r="E6">
-        <v>1.626067362406941</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="F6">
-        <v>2.696524207372993</v>
+        <v>11.95216135159921</v>
       </c>
       <c r="G6">
-        <v>3.197941197786904</v>
+        <v>14.17465828208249</v>
       </c>
       <c r="H6">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I6">
-        <v>16.4915750647383</v>
+        <v>73.09779217884001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>5.399264691928394</v>
+        <v>23.93187593179072</v>
       </c>
       <c r="C7">
-        <v>1.00512609948452</v>
+        <v>4.455153522039491</v>
       </c>
       <c r="D7">
-        <v>2.194303258846026</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="E7">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F7">
-        <v>2.579284024443731</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="G7">
-        <v>3.103884103734346</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="H7">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I7">
-        <v>16.47386806057692</v>
+        <v>73.0193070793139</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>6.313129872945636</v>
+        <v>27.98252159900228</v>
       </c>
       <c r="C8">
-        <v>1.133988419931253</v>
+        <v>5.026327050506093</v>
       </c>
       <c r="D8">
-        <v>3.038266050709882</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="E8">
-        <v>2.139562318956502</v>
+        <v>9.483465413753141</v>
       </c>
       <c r="F8">
-        <v>1.922739000039873</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="G8">
-        <v>2.351427351313899</v>
+        <v>10.42254285447242</v>
       </c>
       <c r="H8">
-        <v>0.3220607971971959</v>
+        <v>1.427512722711895</v>
       </c>
       <c r="I8">
-        <v>17.22117381109424</v>
+        <v>76.33168932485013</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>7.310921448137934</v>
+        <v>32.40516533769243</v>
       </c>
       <c r="C9">
-        <v>0.3092695690721599</v>
+        <v>1.370816468319844</v>
       </c>
       <c r="D9">
-        <v>1.856718142100483</v>
+        <v>8.229777710931875</v>
       </c>
       <c r="E9">
-        <v>1.882814840681722</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="F9">
-        <v>1.430330231736979</v>
+        <v>6.33984210823958</v>
       </c>
       <c r="G9">
-        <v>1.975198975103675</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="I9">
-        <v>14.76525320683295</v>
+        <v>65.44598718704333</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>6.984541026346058</v>
+        <v>30.95850617083117</v>
       </c>
       <c r="C10">
-        <v>0.1804072486254266</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="D10">
-        <v>1.772321862914098</v>
+        <v>7.855696905889514</v>
       </c>
       <c r="E10">
-        <v>3.080969739297363</v>
+        <v>13.65619019580452</v>
       </c>
       <c r="F10">
-        <v>1.148953792706753</v>
+        <v>5.092660054159663</v>
       </c>
       <c r="G10">
-        <v>1.034628034578116</v>
+        <v>4.585918855967866</v>
       </c>
       <c r="H10">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I10">
-        <v>14.2478303897817</v>
+        <v>63.15254551146482</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>5.044908805411505</v>
+        <v>22.36121740776992</v>
       </c>
       <c r="C11">
-        <v>0.15463478453608</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="D11">
-        <v>1.434736746168555</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="E11">
-        <v>2.567474782747802</v>
+        <v>11.38015849650377</v>
       </c>
       <c r="F11">
-        <v>0.5158568048887464</v>
+        <v>2.286500432479849</v>
       </c>
       <c r="G11">
-        <v>1.598970598893452</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="H11">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I11">
-        <v>11.36259120796003</v>
+        <v>50.36391778663364</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>4.532025285452849</v>
+        <v>20.08789585984506</v>
       </c>
       <c r="C12">
-        <v>0.4639043536082399</v>
+        <v>2.056224702479765</v>
       </c>
       <c r="D12">
-        <v>1.265944187795784</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="E12">
-        <v>2.225144811714762</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F12">
-        <v>0.4924087683028943</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="G12">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="H12">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I12">
-        <v>9.871949938661418</v>
+        <v>43.75675107947223</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>3.301104837552074</v>
+        <v>14.63192414482541</v>
       </c>
       <c r="C13">
-        <v>0.1030898563573866</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="D13">
-        <v>1.097151629423013</v>
+        <v>4.863050465550652</v>
       </c>
       <c r="E13">
-        <v>2.225144811714762</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F13">
-        <v>0.3751685853736337</v>
+        <v>1.66290940543989</v>
       </c>
       <c r="G13">
-        <v>0.7524567524204477</v>
+        <v>3.335213713431174</v>
       </c>
       <c r="H13">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I13">
-        <v>7.900125158155201</v>
+        <v>35.01677097128252</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.697178193317734</v>
+        <v>7.522627667678602</v>
       </c>
       <c r="C14">
-        <v>0.05154492817869331</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D14">
-        <v>0.4219813959319281</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="E14">
-        <v>1.454902376890421</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="F14">
-        <v>0.2813764390302253</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="G14">
-        <v>0.2821712821576679</v>
+        <v>1.25070514253669</v>
       </c>
       <c r="I14">
-        <v>4.18915461550667</v>
+        <v>18.56814478224578</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.380122926434201</v>
+        <v>6.117301619870513</v>
       </c>
       <c r="C15">
-        <v>0.1804072486254266</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="D15">
-        <v>0.6751702334910848</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="E15">
-        <v>0.5134949565495605</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="F15">
-        <v>0.7034410975755631</v>
+        <v>3.117955135199794</v>
       </c>
       <c r="G15">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I15">
-        <v>3.922921932938616</v>
+        <v>17.38808640545765</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>1.128343743909042</v>
+        <v>5.001307405434676</v>
       </c>
       <c r="C16">
-        <v>0.15463478453608</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="F16">
-        <v>0.3048244756160774</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="G16">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I16">
-        <v>2.05808847432398</v>
+        <v>9.122338102408991</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.6154602239503871</v>
+        <v>2.727985857509822</v>
       </c>
       <c r="C17">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D17">
-        <v>0.2531888375591568</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="F17">
-        <v>0.211032329272669</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="G17">
-        <v>0.1881141881051119</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="I17">
-        <v>1.293568042976672</v>
+        <v>5.733652947247947</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.4849080552336381</v>
+        <v>2.149322190765315</v>
       </c>
       <c r="C18">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D18">
-        <v>0.08439627918638561</v>
+        <v>0.3740808050423579</v>
       </c>
       <c r="F18">
-        <v>0.1172401829292605</v>
+        <v>0.5196591891999656</v>
       </c>
       <c r="G18">
-        <v>0.3762283762102239</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="I18">
-        <v>1.088545357648855</v>
+        <v>4.824903747416545</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.4662577454169597</v>
+        <v>2.066655952658956</v>
       </c>
       <c r="C19">
-        <v>0.1288623204467333</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="D19">
-        <v>0.1687925583727712</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="E19">
-        <v>0.3423299710330403</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="F19">
-        <v>0.2813764390302253</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="G19">
-        <v>0.3762283762102239</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="I19">
-        <v>1.763847410509954</v>
+        <v>7.81813446820628</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.8579142515672064</v>
+        <v>3.80264695289248</v>
       </c>
       <c r="C20">
-        <v>0.05154492817869331</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F20">
-        <v>0.2579284024443732</v>
+        <v>1.143250216239925</v>
       </c>
       <c r="G20">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="I20">
-        <v>2.013901428663277</v>
+        <v>8.926482008129117</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>2.89079802158515</v>
+        <v>12.81326690648553</v>
       </c>
       <c r="C21">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D21">
-        <v>1.856718142100483</v>
+        <v>8.229777710931875</v>
       </c>
       <c r="E21">
-        <v>0.5134949565495605</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="F21">
-        <v>0.867577353676528</v>
+        <v>3.845478000079746</v>
       </c>
       <c r="G21">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="H21">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I21">
-        <v>7.144437083280535</v>
+        <v>31.66723463940562</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>4.951657256328112</v>
+        <v>21.94788621723812</v>
       </c>
       <c r="C22">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D22">
-        <v>2.447492096405183</v>
+        <v>10.84834334622838</v>
       </c>
       <c r="E22">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F22">
-        <v>1.547570414666239</v>
+        <v>6.859501297439547</v>
       </c>
       <c r="G22">
-        <v>2.915769915629236</v>
+        <v>12.9239531395458</v>
       </c>
       <c r="H22">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I22">
-        <v>14.9812030071498</v>
+        <v>66.40317008574505</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>6.397056267120689</v>
+        <v>28.35451967048089</v>
       </c>
       <c r="C23">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D23">
-        <v>1.181547908609399</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="E23">
-        <v>2.738639768264322</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="F23">
-        <v>0.9144734268482323</v>
+        <v>4.053341675759731</v>
       </c>
       <c r="G23">
-        <v>1.504913504840895</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="H23">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I23">
-        <v>12.90596563857935</v>
+        <v>57.20482066829764</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>6.201228014045566</v>
+        <v>27.48652417036413</v>
       </c>
       <c r="C24">
-        <v>0.4123594254295465</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="D24">
-        <v>2.025510700473255</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="E24">
-        <v>2.396309797231282</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="F24">
-        <v>1.266193975636013</v>
+        <v>5.612319243359629</v>
       </c>
       <c r="G24">
-        <v>2.727655727524123</v>
+        <v>12.090149711188</v>
       </c>
       <c r="H24">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I24">
-        <v>15.16728369628144</v>
+        <v>67.22796016730153</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>5.361964072295039</v>
+        <v>23.766543455578</v>
       </c>
       <c r="C25">
-        <v>0.5669942099656264</v>
+        <v>2.513163525253046</v>
       </c>
       <c r="D25">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E25">
-        <v>3.936794666879964</v>
+        <v>17.44957636130578</v>
       </c>
       <c r="F25">
-        <v>2.274459548827655</v>
+        <v>10.08138827047933</v>
       </c>
       <c r="G25">
-        <v>2.727655727524123</v>
+        <v>12.090149711188</v>
       </c>
       <c r="H25">
-        <v>0.4140781678249662</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="I25">
-        <v>16.8854756978587</v>
+        <v>74.84373012023855</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>4.522700130544507</v>
+        <v>20.04656274079188</v>
       </c>
       <c r="C26">
-        <v>0.4381318895188931</v>
+        <v>1.941989996786445</v>
       </c>
       <c r="D26">
-        <v>2.025510700473255</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="E26">
-        <v>1.968397333439982</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="F26">
-        <v>2.55583598785788</v>
+        <v>11.32857032455925</v>
       </c>
       <c r="G26">
-        <v>6.489939489626361</v>
+        <v>28.76621827834387</v>
       </c>
       <c r="H26">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I26">
-        <v>18.13854158740253</v>
+        <v>80.39786000902747</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>4.270920948019354</v>
+        <v>18.93056852635604</v>
       </c>
       <c r="C27">
-        <v>0.6700840663230131</v>
+        <v>2.970102348026328</v>
       </c>
       <c r="D27">
-        <v>2.025510700473255</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="E27">
-        <v>1.711649855165201</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="F27">
-        <v>2.790316353716401</v>
+        <v>12.36788870295918</v>
       </c>
       <c r="G27">
-        <v>5.925596925311027</v>
+        <v>26.26480799327049</v>
       </c>
       <c r="H27">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I27">
-        <v>17.48609621963602</v>
+        <v>77.50594000054885</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>4.224295173477655</v>
+        <v>18.72390293109015</v>
       </c>
       <c r="C28">
-        <v>0.2834971049828132</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="D28">
-        <v>1.181547908609399</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="E28">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F28">
-        <v>1.500674341494535</v>
+        <v>6.651637621759559</v>
       </c>
       <c r="G28">
-        <v>3.197941197786904</v>
+        <v>14.17465828208249</v>
       </c>
       <c r="H28">
-        <v>0.1380260559416554</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I28">
-        <v>12.5799616084912</v>
+        <v>55.75982983223129</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>5.22208674866995</v>
+        <v>23.14654666978031</v>
       </c>
       <c r="C29">
-        <v>0.7989463867697463</v>
+        <v>3.541275876492929</v>
       </c>
       <c r="D29">
-        <v>3.797832563387352</v>
+        <v>16.8336362269061</v>
       </c>
       <c r="E29">
-        <v>2.567474782747802</v>
+        <v>11.38015849650377</v>
       </c>
       <c r="F29">
-        <v>2.462043841514472</v>
+        <v>10.91284297319928</v>
       </c>
       <c r="G29">
-        <v>4.796911796680354</v>
+        <v>21.26198742312373</v>
       </c>
       <c r="H29">
-        <v>0.3680694825110811</v>
+        <v>1.631443111670737</v>
       </c>
       <c r="I29">
-        <v>20.01336560228076</v>
+        <v>88.70789077767685</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>4.653252299261259</v>
+        <v>20.62522640753638</v>
       </c>
       <c r="C30">
-        <v>0.3865869613402</v>
+        <v>1.713520585399804</v>
       </c>
       <c r="D30">
-        <v>3.038266050709882</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="E30">
-        <v>1.369319884132161</v>
+        <v>6.069417864802011</v>
       </c>
       <c r="F30">
-        <v>2.743420280544697</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="G30">
-        <v>2.351427351313899</v>
+        <v>10.42254285447242</v>
       </c>
       <c r="H30">
-        <v>0.1840347412555406</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I30">
-        <v>14.72630756855764</v>
+        <v>65.27336327685005</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>5.557792325370158</v>
+        <v>24.63453895569476</v>
       </c>
       <c r="C31">
-        <v>0.6700840663230131</v>
+        <v>2.970102348026328</v>
       </c>
       <c r="D31">
-        <v>2.953869771523497</v>
+        <v>13.09282817648253</v>
       </c>
       <c r="E31">
-        <v>1.711649855165201</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="F31">
-        <v>2.344803658585211</v>
+        <v>10.39318378399931</v>
       </c>
       <c r="G31">
-        <v>3.291998291839459</v>
+        <v>14.59155999626138</v>
       </c>
       <c r="H31">
-        <v>0.2300434265694257</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I31">
-        <v>16.76024139537596</v>
+        <v>74.28863753626104</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>6.453007196570721</v>
+        <v>28.60251838479996</v>
       </c>
       <c r="C32">
-        <v>0.9535811713058264</v>
+        <v>4.226684110652851</v>
       </c>
       <c r="D32">
-        <v>2.785077213150725</v>
+        <v>12.34466656639781</v>
       </c>
       <c r="E32">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F32">
-        <v>1.922739000039873</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="G32">
-        <v>4.232569232365019</v>
+        <v>18.76057713805035</v>
       </c>
       <c r="H32">
-        <v>0.2300434265694257</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I32">
-        <v>18.63099706619984</v>
+        <v>82.58063564477764</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>7.422823307037998</v>
+        <v>32.90116276633059</v>
       </c>
       <c r="C33">
-        <v>0.2319521768041199</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D33">
-        <v>1.35034046698217</v>
+        <v>5.985292880677726</v>
       </c>
       <c r="E33">
-        <v>1.711649855165201</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="F33">
-        <v>1.242745939050162</v>
+        <v>5.508387405519635</v>
       </c>
       <c r="G33">
-        <v>1.787084786998563</v>
+        <v>7.921132569399039</v>
       </c>
       <c r="I33">
-        <v>13.74659653203821</v>
+        <v>60.93086030416939</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>7.702577954288175</v>
+        <v>34.14115633792596</v>
       </c>
       <c r="C34">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D34">
-        <v>1.181547908609399</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="E34">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F34">
-        <v>1.266193975636013</v>
+        <v>5.612319243359629</v>
       </c>
       <c r="G34">
-        <v>0.6583996583678919</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="H34">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I34">
-        <v>13.97344150633639</v>
+        <v>61.93633532538292</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>5.389939537020056</v>
+        <v>23.89054281273754</v>
       </c>
       <c r="C35">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D35">
-        <v>1.097151629423013</v>
+        <v>4.863050465550652</v>
       </c>
       <c r="E35">
-        <v>2.310727304473023</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="F35">
-        <v>0.656545024403859</v>
+        <v>2.910091459519808</v>
       </c>
       <c r="G35">
-        <v>1.975198975103675</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="H35">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I35">
-        <v>11.59889723331944</v>
+        <v>51.41132827741587</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>5.128835199586558</v>
+        <v>22.73321547924851</v>
       </c>
       <c r="C36">
-        <v>0.15463478453608</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="D36">
-        <v>0.7595665126774706</v>
+        <v>3.36672724538122</v>
       </c>
       <c r="E36">
-        <v>2.824222261022583</v>
+        <v>12.51817434615415</v>
       </c>
       <c r="F36">
-        <v>0.5627528780604506</v>
+        <v>2.494364108159835</v>
       </c>
       <c r="G36">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="H36">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I36">
-        <v>10.36854285298392</v>
+        <v>45.95786561863139</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>3.618160104435608</v>
+        <v>16.03725019263351</v>
       </c>
       <c r="C37">
-        <v>0.05154492817869331</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D37">
-        <v>0.9283590710502417</v>
+        <v>4.114888855465938</v>
       </c>
       <c r="E37">
-        <v>2.053979826198242</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F37">
-        <v>0.7503371707472674</v>
+        <v>3.32581881087978</v>
       </c>
       <c r="G37">
-        <v>0.9405709405255599</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="H37">
-        <v>0.09201737062777028</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I37">
-        <v>8.434969411763383</v>
+        <v>37.38743198727554</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.865030981667839</v>
+        <v>8.266623810635824</v>
       </c>
       <c r="C38">
-        <v>0.05154492817869331</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D38">
-        <v>0.4219813959319281</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="E38">
-        <v>1.454902376890421</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="F38">
-        <v>0.3282725122019295</v>
+        <v>1.455045729759904</v>
       </c>
       <c r="G38">
-        <v>0.4702854702627799</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I38">
-        <v>4.592017665133591</v>
+        <v>20.35380802924078</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>1.61325179914268</v>
+        <v>7.15062959619999</v>
       </c>
       <c r="C39">
-        <v>0.2834971049828132</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="D39">
-        <v>0.7595665126774706</v>
+        <v>3.36672724538122</v>
       </c>
       <c r="E39">
-        <v>0.3423299710330403</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="F39">
-        <v>0.5158568048887464</v>
+        <v>2.286500432479849</v>
       </c>
       <c r="G39">
-        <v>0.3762283762102239</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="I39">
-        <v>3.890730568934974</v>
+        <v>17.24540035960367</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>1.240245602809113</v>
+        <v>5.497304834072823</v>
       </c>
       <c r="C40">
-        <v>0.2834971049828132</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="F40">
-        <v>0.398616621959486</v>
+        <v>1.766841243279883</v>
       </c>
       <c r="G40">
-        <v>0.6583996583678919</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="I40">
-        <v>2.580758988119304</v>
+        <v>11.43903983923151</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.7646627024838141</v>
+        <v>3.389315762360688</v>
       </c>
       <c r="C41">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D41">
-        <v>0.2531888375591568</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="F41">
-        <v>0.211032329272669</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="G41">
-        <v>0.2821712821576679</v>
+        <v>1.25070514253669</v>
       </c>
       <c r="I41">
-        <v>1.536827615562654</v>
+        <v>6.81188456627771</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.6527608435837438</v>
+        <v>2.893318333722538</v>
       </c>
       <c r="C42">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D42">
-        <v>0.1687925583727712</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="F42">
-        <v>0.1172401829292605</v>
+        <v>0.5196591891999656</v>
       </c>
       <c r="G42">
-        <v>0.3762283762102239</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="I42">
-        <v>1.340794425185346</v>
+        <v>5.942980695416127</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.4755829003252989</v>
+        <v>2.107989071712135</v>
       </c>
       <c r="C43">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D43">
-        <v>0.1687925583727712</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="E43">
-        <v>0.1711649855165202</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="F43">
-        <v>0.211032329272669</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="G43">
-        <v>0.5643425643153358</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="I43">
-        <v>1.668232730070635</v>
+        <v>7.394328857610382</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.8485890966588668</v>
+        <v>3.761313833839301</v>
       </c>
       <c r="C44">
-        <v>0.05154492817869331</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F44">
-        <v>0.2813764390302253</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="G44">
-        <v>1.034628034578116</v>
+        <v>4.585918855967866</v>
       </c>
       <c r="I44">
-        <v>2.216138498445901</v>
+        <v>9.822884155273726</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>2.909448331401828</v>
+        <v>12.89593314459189</v>
       </c>
       <c r="C45">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D45">
-        <v>1.012755350236627</v>
+        <v>4.488969660508294</v>
       </c>
       <c r="E45">
-        <v>0.4279124637913003</v>
+        <v>1.896693082750628</v>
       </c>
       <c r="F45">
-        <v>1.172401829292606</v>
+        <v>5.196591891999656</v>
       </c>
       <c r="G45">
-        <v>0.8465138464730039</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="H45">
-        <v>0.1840347412555406</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I45">
-        <v>6.630383954718946</v>
+        <v>29.38872888037587</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>5.110184889769878</v>
+        <v>22.65054924114217</v>
       </c>
       <c r="C46">
-        <v>0.02577246408934666</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D46">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E46">
-        <v>2.995387246539103</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F46">
-        <v>1.571018451252091</v>
+        <v>6.963433135279539</v>
       </c>
       <c r="G46">
-        <v>3.856340856154794</v>
+        <v>17.09297028133476</v>
       </c>
       <c r="H46">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I46">
-        <v>15.20824189766042</v>
+        <v>67.40950462746784</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>6.50895812602076</v>
+        <v>28.85051709911903</v>
       </c>
       <c r="C47">
-        <v>0.07731739226803998</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D47">
-        <v>1.434736746168555</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="E47">
-        <v>2.567474782747802</v>
+        <v>11.38015849650377</v>
       </c>
       <c r="F47">
-        <v>0.820681280504824</v>
+        <v>3.637614324399759</v>
       </c>
       <c r="G47">
-        <v>1.693027692946008</v>
+        <v>7.504230855220143</v>
       </c>
       <c r="H47">
-        <v>0.04600868531388514</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I47">
-        <v>13.14820470596987</v>
+        <v>58.2785289670016</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>5.949448831520404</v>
+        <v>26.37052995592828</v>
       </c>
       <c r="C48">
-        <v>0.4381318895188931</v>
+        <v>1.941989996786445</v>
       </c>
       <c r="D48">
-        <v>2.278699538032412</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="E48">
-        <v>2.653057275506062</v>
+        <v>11.7594971130539</v>
       </c>
       <c r="F48">
-        <v>1.313090048807718</v>
+        <v>5.820182919039616</v>
       </c>
       <c r="G48">
-        <v>2.445484445366455</v>
+        <v>10.83944456865131</v>
       </c>
       <c r="H48">
-        <v>0.1840347412555406</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I48">
-        <v>15.26194677000749</v>
+        <v>67.64754784543858</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>5.361964072295039</v>
+        <v>23.766543455578</v>
       </c>
       <c r="C49">
-        <v>0.5669942099656264</v>
+        <v>2.513163525253046</v>
       </c>
       <c r="D49">
-        <v>1.603529304541327</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E49">
-        <v>3.936794666879964</v>
+        <v>17.44957636130578</v>
       </c>
       <c r="F49">
-        <v>2.274459548827655</v>
+        <v>10.08138827047933</v>
       </c>
       <c r="G49">
-        <v>2.727655727524123</v>
+        <v>12.090149711188</v>
       </c>
       <c r="H49">
-        <v>0.4140781678249662</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="I49">
-        <v>16.8854756978587</v>
+        <v>74.84373012023855</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>19.46789907404738</v>
+        <v>4.326199794232749</v>
       </c>
       <c r="C2">
-        <v>2.284694113866406</v>
+        <v>0.5077098030814237</v>
       </c>
       <c r="D2">
-        <v>10.10018173614366</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="E2">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="F2">
-        <v>10.6010474596793</v>
+        <v>2.355788324373178</v>
       </c>
       <c r="G2">
-        <v>24.18029942237601</v>
+        <v>5.373399871639114</v>
       </c>
       <c r="H2">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="I2">
-        <v>75.97070115364218</v>
+        <v>16.88237803414271</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>19.50923219310055</v>
+        <v>4.335384931800123</v>
       </c>
       <c r="C3">
-        <v>2.627398230946367</v>
+        <v>0.5838662735436371</v>
       </c>
       <c r="D3">
-        <v>10.10018173614366</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="E3">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="F3">
-        <v>10.91284297319928</v>
+        <v>2.425076216266507</v>
       </c>
       <c r="G3">
-        <v>20.42818399476594</v>
+        <v>4.539596443281319</v>
       </c>
       <c r="H3">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="I3">
-        <v>73.29375709223534</v>
+        <v>16.2875015760523</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>19.92256338363234</v>
+        <v>4.427236307473852</v>
       </c>
       <c r="C4">
-        <v>1.599285879706484</v>
+        <v>0.3553968621569965</v>
       </c>
       <c r="D4">
-        <v>6.733454490762441</v>
+        <v>1.496323220169431</v>
       </c>
       <c r="E4">
-        <v>7.207433714452388</v>
+        <v>1.601651936544975</v>
       </c>
       <c r="F4">
-        <v>7.898819675839478</v>
+        <v>1.755293261297662</v>
       </c>
       <c r="G4">
-        <v>13.75775656790359</v>
+        <v>3.05727923731191</v>
       </c>
       <c r="H4">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I4">
-        <v>57.52717449021441</v>
+        <v>12.78381655338098</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>23.10521355072713</v>
+        <v>5.134491900161584</v>
       </c>
       <c r="C5">
-        <v>3.541275876492929</v>
+        <v>0.7869501947762065</v>
       </c>
       <c r="D5">
-        <v>13.46690898152488</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="E5">
-        <v>6.828095097902262</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="F5">
-        <v>11.43250216239924</v>
+        <v>2.54055603608872</v>
       </c>
       <c r="G5">
-        <v>15.42536342461918</v>
+        <v>3.427858538804263</v>
       </c>
       <c r="H5">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="I5">
-        <v>74.81901103845983</v>
+        <v>16.62644689743552</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>24.26254088421614</v>
+        <v>5.391675752048032</v>
       </c>
       <c r="C6">
-        <v>2.170459408173086</v>
+        <v>0.4823243129273524</v>
       </c>
       <c r="D6">
-        <v>12.71874737144017</v>
+        <v>2.826388304764481</v>
       </c>
       <c r="E6">
-        <v>7.207433714452388</v>
+        <v>1.601651936544975</v>
       </c>
       <c r="F6">
-        <v>11.95216135159921</v>
+        <v>2.656035855910935</v>
       </c>
       <c r="G6">
-        <v>14.17465828208249</v>
+        <v>3.149924062684998</v>
       </c>
       <c r="H6">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="I6">
-        <v>73.09779217884001</v>
+        <v>16.24395381752</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>23.93187593179072</v>
+        <v>5.318194651509049</v>
       </c>
       <c r="C7">
-        <v>4.455153522039491</v>
+        <v>0.990034116008776</v>
       </c>
       <c r="D7">
-        <v>9.726100931101303</v>
+        <v>2.161355762466957</v>
       </c>
       <c r="E7">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="F7">
-        <v>11.43250216239924</v>
+        <v>2.54055603608872</v>
       </c>
       <c r="G7">
-        <v>13.75775656790359</v>
+        <v>3.05727923731191</v>
       </c>
       <c r="H7">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="I7">
-        <v>73.0193070793139</v>
+        <v>16.22651268429198</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>27.98252159900228</v>
+        <v>6.21833813311162</v>
       </c>
       <c r="C8">
-        <v>5.026327050506093</v>
+        <v>1.116961566779132</v>
       </c>
       <c r="D8">
-        <v>13.46690898152488</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="E8">
-        <v>9.483465413753141</v>
+        <v>2.10743675861181</v>
       </c>
       <c r="F8">
-        <v>8.522410702879437</v>
+        <v>1.893869045084319</v>
       </c>
       <c r="G8">
-        <v>10.42254285447242</v>
+        <v>2.316120634327204</v>
       </c>
       <c r="H8">
-        <v>1.427512722711895</v>
+        <v>0.3172250494915323</v>
       </c>
       <c r="I8">
-        <v>76.33168932485013</v>
+        <v>16.96259762774448</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>32.40516533769243</v>
+        <v>7.201147852820538</v>
       </c>
       <c r="C9">
-        <v>1.370816468319844</v>
+        <v>0.3046258818488541</v>
       </c>
       <c r="D9">
-        <v>8.229777710931875</v>
+        <v>1.828839491318194</v>
       </c>
       <c r="E9">
-        <v>8.345449564102768</v>
+        <v>1.854544347578393</v>
       </c>
       <c r="F9">
-        <v>6.33984210823958</v>
+        <v>1.408853801831018</v>
       </c>
       <c r="G9">
-        <v>8.754935997756828</v>
+        <v>1.945541332834851</v>
       </c>
       <c r="I9">
-        <v>65.44598718704333</v>
+        <v>14.54355270823185</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>30.95850617083117</v>
+        <v>6.879668037962479</v>
       </c>
       <c r="C10">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="D10">
-        <v>7.855696905889514</v>
+        <v>1.745710423531003</v>
       </c>
       <c r="E10">
-        <v>13.65619019580452</v>
+        <v>3.034708932401005</v>
       </c>
       <c r="F10">
-        <v>5.092660054159663</v>
+        <v>1.131702234257703</v>
       </c>
       <c r="G10">
-        <v>4.585918855967866</v>
+        <v>1.01909307910397</v>
       </c>
       <c r="H10">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I10">
-        <v>63.15254551146482</v>
+        <v>14.03389900254773</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>22.36121740776992</v>
+        <v>4.96915942394887</v>
       </c>
       <c r="C11">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="D11">
-        <v>6.359373685720086</v>
+        <v>1.41319415238224</v>
       </c>
       <c r="E11">
-        <v>11.38015849650377</v>
+        <v>2.528924110334171</v>
       </c>
       <c r="F11">
-        <v>2.286500432479849</v>
+        <v>0.5081112072177443</v>
       </c>
       <c r="G11">
-        <v>7.087329141041244</v>
+        <v>1.574962031342499</v>
       </c>
       <c r="H11">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I11">
-        <v>50.36391778663364</v>
+        <v>11.19198173036303</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>20.08789585984506</v>
+        <v>4.463976857743345</v>
       </c>
       <c r="C12">
-        <v>2.056224702479765</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="D12">
-        <v>5.611212075635371</v>
+        <v>1.246936016807859</v>
       </c>
       <c r="E12">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="F12">
-        <v>2.182568594639855</v>
+        <v>0.4850152432533013</v>
       </c>
       <c r="G12">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="H12">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I12">
-        <v>43.75675107947223</v>
+        <v>9.723722462104936</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>14.63192414482541</v>
+        <v>3.25153869885009</v>
       </c>
       <c r="C13">
-        <v>0.4569388227732812</v>
+        <v>0.1015419606162847</v>
       </c>
       <c r="D13">
-        <v>4.863050465550652</v>
+        <v>1.080677881233478</v>
       </c>
       <c r="E13">
-        <v>9.862804030303268</v>
+        <v>2.191734228956281</v>
       </c>
       <c r="F13">
-        <v>1.66290940543989</v>
+        <v>0.3695354234310867</v>
       </c>
       <c r="G13">
-        <v>3.335213713431174</v>
+        <v>0.7411586029847055</v>
       </c>
       <c r="H13">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I13">
-        <v>35.01677097128252</v>
+        <v>7.781504660285004</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>7.522627667678602</v>
+        <v>1.671695037261912</v>
       </c>
       <c r="C14">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="D14">
-        <v>1.870404025211789</v>
+        <v>0.4156453389359533</v>
       </c>
       <c r="E14">
-        <v>6.448756481352135</v>
+        <v>1.433056995856031</v>
       </c>
       <c r="F14">
-        <v>1.247182054079917</v>
+        <v>0.2771515675733149</v>
       </c>
       <c r="G14">
-        <v>1.25070514253669</v>
+        <v>0.2779344761192645</v>
       </c>
       <c r="I14">
-        <v>18.56814478224578</v>
+        <v>4.126254396054618</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>6.117301619870513</v>
+        <v>1.359400359971225</v>
       </c>
       <c r="C15">
-        <v>0.7996429398532422</v>
+        <v>0.1776984310784983</v>
       </c>
       <c r="D15">
-        <v>2.992646440338863</v>
+        <v>0.6650325422975251</v>
       </c>
       <c r="E15">
-        <v>2.276031699300755</v>
+        <v>0.5057848220668343</v>
       </c>
       <c r="F15">
-        <v>3.117955135199794</v>
+        <v>0.6928789189332873</v>
       </c>
       <c r="G15">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="I15">
-        <v>17.38808640545765</v>
+        <v>3.864019201212812</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>5.001307405434676</v>
+        <v>1.11140164565215</v>
       </c>
       <c r="C16">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="F16">
-        <v>1.351113891919911</v>
+        <v>0.3002475315377579</v>
       </c>
       <c r="G16">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="I16">
-        <v>9.122338102408991</v>
+        <v>2.027186244979776</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>2.727985857509822</v>
+        <v>0.6062190794466272</v>
       </c>
       <c r="C17">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="D17">
-        <v>1.122242415127074</v>
+        <v>0.2493872033615719</v>
       </c>
       <c r="F17">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="G17">
-        <v>0.8338034283577934</v>
+        <v>0.1852896507461764</v>
       </c>
       <c r="I17">
-        <v>5.733652947247947</v>
+        <v>1.274145099388433</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>2.149322190765315</v>
+        <v>0.4776271535034033</v>
       </c>
       <c r="C18">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="D18">
-        <v>0.3740808050423579</v>
+        <v>0.08312906778719063</v>
       </c>
       <c r="F18">
-        <v>0.5196591891999656</v>
+        <v>0.1154798198222146</v>
       </c>
       <c r="G18">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="I18">
-        <v>4.824903747416545</v>
+        <v>1.072200832759233</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>2.066655952658956</v>
+        <v>0.4592568783686573</v>
       </c>
       <c r="C19">
-        <v>0.5711735284666014</v>
+        <v>0.1269274507703559</v>
       </c>
       <c r="D19">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="E19">
-        <v>1.517354466200503</v>
+        <v>0.3371898813778896</v>
       </c>
       <c r="F19">
-        <v>1.247182054079917</v>
+        <v>0.2771515675733149</v>
       </c>
       <c r="G19">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="I19">
-        <v>7.81813446820628</v>
+        <v>1.737363215156952</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>3.80264695289248</v>
+        <v>0.8450326561983288</v>
       </c>
       <c r="C20">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="F20">
-        <v>1.143250216239925</v>
+        <v>0.2540556036088721</v>
       </c>
       <c r="G20">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="I20">
-        <v>8.926482008129117</v>
+        <v>1.983662668473137</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>12.81326690648553</v>
+        <v>2.847392645885673</v>
       </c>
       <c r="C21">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="D21">
-        <v>8.229777710931875</v>
+        <v>1.828839491318194</v>
       </c>
       <c r="E21">
-        <v>2.276031699300755</v>
+        <v>0.5057848220668343</v>
       </c>
       <c r="F21">
-        <v>3.845478000079746</v>
+        <v>0.8545506666843882</v>
       </c>
       <c r="G21">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="H21">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I21">
-        <v>31.66723463940562</v>
+        <v>7.037163253201249</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>21.94788621723812</v>
+        <v>4.877308048275138</v>
       </c>
       <c r="C22">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="D22">
-        <v>10.84834334622838</v>
+        <v>2.410742965828528</v>
       </c>
       <c r="E22">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="F22">
-        <v>6.859501297439547</v>
+        <v>1.524333621653233</v>
       </c>
       <c r="G22">
-        <v>12.9239531395458</v>
+        <v>2.871989586565733</v>
       </c>
       <c r="H22">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I22">
-        <v>66.40317008574505</v>
+        <v>14.75626001905446</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>28.35451967048089</v>
+        <v>6.301004371217977</v>
       </c>
       <c r="C23">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="D23">
-        <v>5.23713127059301</v>
+        <v>1.163806949020669</v>
       </c>
       <c r="E23">
-        <v>12.13883572960402</v>
+        <v>2.697519051023117</v>
       </c>
       <c r="F23">
-        <v>4.053341675759731</v>
+        <v>0.900742594613274</v>
       </c>
       <c r="G23">
-        <v>6.670427426862347</v>
+        <v>1.482317205969411</v>
       </c>
       <c r="H23">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I23">
-        <v>57.20482066829764</v>
+        <v>12.71218237073281</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>27.48652417036413</v>
+        <v>6.108116482303138</v>
       </c>
       <c r="C24">
-        <v>1.827755291093125</v>
+        <v>0.4061678424651389</v>
       </c>
       <c r="D24">
-        <v>8.977939321016589</v>
+        <v>1.995097626892575</v>
       </c>
       <c r="E24">
-        <v>10.62148126340352</v>
+        <v>2.360329169645226</v>
       </c>
       <c r="F24">
-        <v>5.612319243359629</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="G24">
-        <v>12.090149711188</v>
+        <v>2.686699935819557</v>
       </c>
       <c r="H24">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="I24">
-        <v>67.22796016730153</v>
+        <v>14.93954670384478</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>23.766543455578</v>
+        <v>5.281454101239555</v>
       </c>
       <c r="C25">
-        <v>2.513163525253046</v>
+        <v>0.558480783389566</v>
       </c>
       <c r="D25">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="E25">
-        <v>17.44957636130578</v>
+        <v>3.87768363584573</v>
       </c>
       <c r="F25">
-        <v>10.08138827047933</v>
+        <v>2.240308504550963</v>
       </c>
       <c r="G25">
-        <v>12.090149711188</v>
+        <v>2.686699935819557</v>
       </c>
       <c r="H25">
-        <v>1.835373500629579</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I25">
-        <v>74.84373012023855</v>
+        <v>16.63194002671968</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>20.04656274079188</v>
+        <v>4.454791720175972</v>
       </c>
       <c r="C26">
-        <v>1.941989996786445</v>
+        <v>0.4315533326192101</v>
       </c>
       <c r="D26">
-        <v>8.977939321016589</v>
+        <v>1.995097626892575</v>
       </c>
       <c r="E26">
-        <v>8.724788180652892</v>
+        <v>1.938841817922865</v>
       </c>
       <c r="F26">
-        <v>11.32857032455925</v>
+        <v>2.517460072124278</v>
       </c>
       <c r="G26">
-        <v>28.76621827834387</v>
+        <v>6.392492950743085</v>
       </c>
       <c r="H26">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="I26">
-        <v>80.39786000902747</v>
+        <v>17.86619111311721</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>18.93056852635604</v>
+        <v>4.206793005856898</v>
       </c>
       <c r="C27">
-        <v>2.970102348026328</v>
+        <v>0.6600227440058506</v>
       </c>
       <c r="D27">
-        <v>8.977939321016589</v>
+        <v>1.995097626892575</v>
       </c>
       <c r="E27">
-        <v>7.586772331002512</v>
+        <v>1.685949406889448</v>
       </c>
       <c r="F27">
-        <v>12.36788870295918</v>
+        <v>2.748419711768707</v>
       </c>
       <c r="G27">
-        <v>26.26480799327049</v>
+        <v>5.836623998504554</v>
       </c>
       <c r="H27">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I27">
-        <v>77.50594000054885</v>
+        <v>17.22354222234418</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>18.72390293109015</v>
+        <v>4.160867318020034</v>
       </c>
       <c r="C28">
-        <v>1.256581762626523</v>
+        <v>0.279240391694783</v>
       </c>
       <c r="D28">
-        <v>5.23713127059301</v>
+        <v>1.163806949020669</v>
       </c>
       <c r="E28">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="F28">
-        <v>6.651637621759559</v>
+        <v>1.478141693724347</v>
       </c>
       <c r="G28">
-        <v>14.17465828208249</v>
+        <v>3.149924062684998</v>
       </c>
       <c r="H28">
-        <v>0.6117911668765267</v>
+        <v>0.1359535926392281</v>
       </c>
       <c r="I28">
-        <v>55.75982983223129</v>
+        <v>12.3910732960514</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>23.14654666978031</v>
+        <v>5.143677037728955</v>
       </c>
       <c r="C29">
-        <v>3.541275876492929</v>
+        <v>0.7869501947762065</v>
       </c>
       <c r="D29">
-        <v>16.8336362269061</v>
+        <v>3.740808050423579</v>
       </c>
       <c r="E29">
-        <v>11.38015849650377</v>
+        <v>2.528924110334171</v>
       </c>
       <c r="F29">
-        <v>10.91284297319928</v>
+        <v>2.425076216266507</v>
       </c>
       <c r="G29">
-        <v>21.26198742312373</v>
+        <v>4.724886094027497</v>
       </c>
       <c r="H29">
-        <v>1.631443111670737</v>
+        <v>0.3625429137046082</v>
       </c>
       <c r="I29">
-        <v>88.70789077767685</v>
+        <v>19.71286461726152</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>20.62522640753638</v>
+        <v>4.583383646119198</v>
       </c>
       <c r="C30">
-        <v>1.713520585399804</v>
+        <v>0.3807823523110677</v>
       </c>
       <c r="D30">
-        <v>13.46690898152488</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="E30">
-        <v>6.069417864802011</v>
+        <v>1.348759525511558</v>
       </c>
       <c r="F30">
-        <v>12.16002502727919</v>
+        <v>2.702227783839822</v>
       </c>
       <c r="G30">
-        <v>10.42254285447242</v>
+        <v>2.316120634327204</v>
       </c>
       <c r="H30">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="I30">
-        <v>65.27336327685005</v>
+        <v>14.50519183930002</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>24.63453895569476</v>
+        <v>5.474341990154393</v>
       </c>
       <c r="C31">
-        <v>2.970102348026328</v>
+        <v>0.6600227440058506</v>
       </c>
       <c r="D31">
-        <v>13.09282817648253</v>
+        <v>2.909517372551673</v>
       </c>
       <c r="E31">
-        <v>7.586772331002512</v>
+        <v>1.685949406889448</v>
       </c>
       <c r="F31">
-        <v>10.39318378399931</v>
+        <v>2.309596396444292</v>
       </c>
       <c r="G31">
-        <v>14.59155999626138</v>
+        <v>3.242568888058086</v>
       </c>
       <c r="H31">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="I31">
-        <v>74.28863753626104</v>
+        <v>16.50858611916912</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>28.60251838479996</v>
+        <v>6.356115196622215</v>
       </c>
       <c r="C32">
-        <v>4.226684110652851</v>
+        <v>0.9392631357006338</v>
       </c>
       <c r="D32">
-        <v>12.34466656639781</v>
+        <v>2.743259236977292</v>
       </c>
       <c r="E32">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="F32">
-        <v>8.522410702879437</v>
+        <v>1.893869045084319</v>
       </c>
       <c r="G32">
-        <v>18.76057713805035</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="H32">
-        <v>1.019651944794211</v>
+        <v>0.2265893210653802</v>
       </c>
       <c r="I32">
-        <v>82.58063564477764</v>
+        <v>18.35125236550615</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>32.90116276633059</v>
+        <v>7.311369503629018</v>
       </c>
       <c r="C33">
-        <v>1.028112351239883</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D33">
-        <v>5.985292880677726</v>
+        <v>1.33006508459505</v>
       </c>
       <c r="E33">
-        <v>7.586772331002512</v>
+        <v>1.685949406889448</v>
       </c>
       <c r="F33">
-        <v>5.508387405519635</v>
+        <v>1.224086090115475</v>
       </c>
       <c r="G33">
-        <v>7.921132569399039</v>
+        <v>1.760251682088676</v>
       </c>
       <c r="I33">
-        <v>60.93086030416939</v>
+        <v>13.5401911787043</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>34.14115633792596</v>
+        <v>7.586923630650213</v>
       </c>
       <c r="C34">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="D34">
-        <v>5.23713127059301</v>
+        <v>1.163806949020669</v>
       </c>
       <c r="E34">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="F34">
-        <v>5.612319243359629</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="G34">
-        <v>2.918311999252277</v>
+        <v>0.6485137776116173</v>
       </c>
       <c r="H34">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I34">
-        <v>61.93633532538292</v>
+        <v>13.76363007230731</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>23.89054281273754</v>
+        <v>5.309009513941675</v>
       </c>
       <c r="C35">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="D35">
-        <v>4.863050465550652</v>
+        <v>1.080677881233478</v>
       </c>
       <c r="E35">
-        <v>10.2421426468534</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="F35">
-        <v>2.910091459519808</v>
+        <v>0.6466869910044017</v>
       </c>
       <c r="G35">
-        <v>8.754935997756828</v>
+        <v>1.945541332834851</v>
       </c>
       <c r="H35">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I35">
-        <v>51.41132827741587</v>
+        <v>11.42473961720353</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>22.73321547924851</v>
+        <v>5.051825662055226</v>
       </c>
       <c r="C36">
-        <v>0.6854082341599218</v>
+        <v>0.152312940924427</v>
       </c>
       <c r="D36">
-        <v>3.36672724538122</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="E36">
-        <v>12.51817434615415</v>
+        <v>2.781816521367589</v>
       </c>
       <c r="F36">
-        <v>2.494364108159835</v>
+        <v>0.5543031351466299</v>
       </c>
       <c r="G36">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="H36">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I36">
-        <v>45.95786561863139</v>
+        <v>10.21285902636253</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>16.03725019263351</v>
+        <v>3.563833376140778</v>
       </c>
       <c r="C37">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="D37">
-        <v>4.114888855465938</v>
+        <v>0.9144197456590971</v>
       </c>
       <c r="E37">
-        <v>9.104126797203021</v>
+        <v>2.023139288267337</v>
       </c>
       <c r="F37">
-        <v>3.32581881087978</v>
+        <v>0.7390708468621734</v>
       </c>
       <c r="G37">
-        <v>4.169017141788967</v>
+        <v>0.926448253730882</v>
       </c>
       <c r="H37">
-        <v>0.4078607779176843</v>
+        <v>0.09063572842615206</v>
       </c>
       <c r="I37">
-        <v>37.38743198727554</v>
+        <v>8.308318219394563</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>8.266623810635824</v>
+        <v>1.837027513474629</v>
       </c>
       <c r="C38">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="D38">
-        <v>1.870404025211789</v>
+        <v>0.4156453389359533</v>
       </c>
       <c r="E38">
-        <v>6.448756481352135</v>
+        <v>1.433056995856031</v>
       </c>
       <c r="F38">
-        <v>1.455045729759904</v>
+        <v>0.3233434955022009</v>
       </c>
       <c r="G38">
-        <v>2.084508570894484</v>
+        <v>0.463224126865441</v>
       </c>
       <c r="I38">
-        <v>20.35380802924078</v>
+        <v>4.523068450942398</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>7.15062959619999</v>
+        <v>1.589028799155554</v>
       </c>
       <c r="C39">
-        <v>1.256581762626523</v>
+        <v>0.279240391694783</v>
       </c>
       <c r="D39">
-        <v>3.36672724538122</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="E39">
-        <v>1.517354466200503</v>
+        <v>0.3371898813778896</v>
       </c>
       <c r="F39">
-        <v>2.286500432479849</v>
+        <v>0.5081112072177443</v>
       </c>
       <c r="G39">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="I39">
-        <v>17.24540035960367</v>
+        <v>3.832311191023039</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>5.497304834072823</v>
+        <v>1.221623296460628</v>
       </c>
       <c r="C40">
-        <v>1.256581762626523</v>
+        <v>0.279240391694783</v>
       </c>
       <c r="F40">
-        <v>1.766841243279883</v>
+        <v>0.3926313873955297</v>
       </c>
       <c r="G40">
-        <v>2.918311999252277</v>
+        <v>0.6485137776116173</v>
       </c>
       <c r="I40">
-        <v>11.43903983923151</v>
+        <v>2.542008853162558</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>3.389315762360688</v>
+        <v>0.7531812805245975</v>
       </c>
       <c r="C41">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="D41">
-        <v>1.122242415127074</v>
+        <v>0.2493872033615719</v>
       </c>
       <c r="F41">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="G41">
-        <v>1.25070514253669</v>
+        <v>0.2779344761192645</v>
       </c>
       <c r="I41">
-        <v>6.81188456627771</v>
+        <v>1.513752125839491</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>2.893318333722538</v>
+        <v>0.6429596297161194</v>
       </c>
       <c r="C42">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="D42">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="F42">
-        <v>0.5196591891999656</v>
+        <v>0.1154798198222146</v>
       </c>
       <c r="G42">
-        <v>1.667606856715587</v>
+        <v>0.3705793014923527</v>
       </c>
       <c r="I42">
-        <v>5.942980695416127</v>
+        <v>1.320662376759139</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>2.107989071712135</v>
+        <v>0.4684420159360303</v>
       </c>
       <c r="C43">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="D43">
-        <v>0.7481616100847157</v>
+        <v>0.1662581355743813</v>
       </c>
       <c r="E43">
-        <v>0.7586772331002514</v>
+        <v>0.1685949406889448</v>
       </c>
       <c r="F43">
-        <v>0.9353865405599382</v>
+        <v>0.2078636756799862</v>
       </c>
       <c r="G43">
-        <v>2.50141028507338</v>
+        <v>0.5558689522385291</v>
       </c>
       <c r="I43">
-        <v>7.394328857610382</v>
+        <v>1.643184190580085</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>3.761313833839301</v>
+        <v>0.835847518630956</v>
       </c>
       <c r="C44">
-        <v>0.2284694113866406</v>
+        <v>0.05077098030814236</v>
       </c>
       <c r="F44">
-        <v>1.247182054079917</v>
+        <v>0.2771515675733149</v>
       </c>
       <c r="G44">
-        <v>4.585918855967866</v>
+        <v>1.01909307910397</v>
       </c>
       <c r="I44">
-        <v>9.822884155273726</v>
+        <v>2.182863145616383</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>12.89593314459189</v>
+        <v>2.86576292102042</v>
       </c>
       <c r="C45">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="D45">
-        <v>4.488969660508294</v>
+        <v>0.9975488134462875</v>
       </c>
       <c r="E45">
-        <v>1.896693082750628</v>
+        <v>0.4214873517223619</v>
       </c>
       <c r="F45">
-        <v>5.196591891999656</v>
+        <v>1.154798198222146</v>
       </c>
       <c r="G45">
-        <v>3.752115427610072</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="H45">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="I45">
-        <v>29.38872888037587</v>
+        <v>6.530828640083526</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>22.65054924114217</v>
+        <v>5.033455386920482</v>
       </c>
       <c r="C46">
-        <v>0.1142347056933203</v>
+        <v>0.02538549015407118</v>
       </c>
       <c r="D46">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="E46">
-        <v>13.2768515792544</v>
+        <v>2.950411462056533</v>
       </c>
       <c r="F46">
-        <v>6.963433135279539</v>
+        <v>1.547429585617676</v>
       </c>
       <c r="G46">
-        <v>17.09297028133476</v>
+        <v>3.798437840296615</v>
       </c>
       <c r="H46">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I46">
-        <v>67.40950462746784</v>
+        <v>14.97988991721508</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>28.85051709911903</v>
+        <v>6.411226022026455</v>
       </c>
       <c r="C47">
-        <v>0.3427041170799609</v>
+        <v>0.07615647046221352</v>
       </c>
       <c r="D47">
-        <v>6.359373685720086</v>
+        <v>1.41319415238224</v>
       </c>
       <c r="E47">
-        <v>11.38015849650377</v>
+        <v>2.528924110334171</v>
       </c>
       <c r="F47">
-        <v>3.637614324399759</v>
+        <v>0.8083587387555022</v>
       </c>
       <c r="G47">
-        <v>7.504230855220143</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="H47">
-        <v>0.2039303889588422</v>
+        <v>0.04531786421307603</v>
       </c>
       <c r="I47">
-        <v>58.2785289670016</v>
+        <v>12.95078421488924</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>26.37052995592828</v>
+        <v>5.860117767984064</v>
       </c>
       <c r="C48">
-        <v>1.941989996786445</v>
+        <v>0.4315533326192101</v>
       </c>
       <c r="D48">
-        <v>10.10018173614366</v>
+        <v>2.244484830254147</v>
       </c>
       <c r="E48">
-        <v>11.7594971130539</v>
+        <v>2.613221580678643</v>
       </c>
       <c r="F48">
-        <v>5.820182919039616</v>
+        <v>1.293373982008803</v>
       </c>
       <c r="G48">
-        <v>10.83944456865131</v>
+        <v>2.408765459700292</v>
       </c>
       <c r="H48">
-        <v>0.8157215558353687</v>
+        <v>0.1812714568523041</v>
       </c>
       <c r="I48">
-        <v>67.64754784543858</v>
+        <v>15.03278841009746</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>23.766543455578</v>
+        <v>5.281454101239555</v>
       </c>
       <c r="C49">
-        <v>2.513163525253046</v>
+        <v>0.558480783389566</v>
       </c>
       <c r="D49">
-        <v>7.1075352958048</v>
+        <v>1.579452287956622</v>
       </c>
       <c r="E49">
-        <v>17.44957636130578</v>
+        <v>3.87768363584573</v>
       </c>
       <c r="F49">
-        <v>10.08138827047933</v>
+        <v>2.240308504550963</v>
       </c>
       <c r="G49">
-        <v>12.090149711188</v>
+        <v>2.686699935819557</v>
       </c>
       <c r="H49">
-        <v>1.835373500629579</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I49">
-        <v>74.84373012023855</v>
+        <v>16.63194002671968</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10_재비산.xlsx
+++ b/output/경기동로_W_겨울_배출량/경기동로_W_겨울_배출량_PM10_재비산.xlsx
@@ -438,28 +438,28 @@
         <v>2024121610</v>
       </c>
       <c r="B2">
-        <v>4.326199794232749</v>
+        <v>19.46789907404738</v>
       </c>
       <c r="C2">
-        <v>0.5077098030814237</v>
+        <v>2.284694113866406</v>
       </c>
       <c r="D2">
-        <v>2.244484830254147</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="E2">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="F2">
-        <v>2.355788324373178</v>
+        <v>10.6010474596793</v>
       </c>
       <c r="G2">
-        <v>5.373399871639114</v>
+        <v>24.18029942237601</v>
       </c>
       <c r="H2">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I2">
-        <v>16.88237803414271</v>
+        <v>75.97070115364218</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024121611</v>
       </c>
       <c r="B3">
-        <v>4.335384931800123</v>
+        <v>19.50923219310055</v>
       </c>
       <c r="C3">
-        <v>0.5838662735436371</v>
+        <v>2.627398230946367</v>
       </c>
       <c r="D3">
-        <v>2.244484830254147</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="E3">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F3">
-        <v>2.425076216266507</v>
+        <v>10.91284297319928</v>
       </c>
       <c r="G3">
-        <v>4.539596443281319</v>
+        <v>20.42818399476594</v>
       </c>
       <c r="H3">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I3">
-        <v>16.2875015760523</v>
+        <v>73.29375709223534</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024121612</v>
       </c>
       <c r="B4">
-        <v>4.427236307473852</v>
+        <v>19.92256338363234</v>
       </c>
       <c r="C4">
-        <v>0.3553968621569965</v>
+        <v>1.599285879706484</v>
       </c>
       <c r="D4">
-        <v>1.496323220169431</v>
+        <v>6.733454490762441</v>
       </c>
       <c r="E4">
-        <v>1.601651936544975</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="F4">
-        <v>1.755293261297662</v>
+        <v>7.898819675839478</v>
       </c>
       <c r="G4">
-        <v>3.05727923731191</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="H4">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I4">
-        <v>12.78381655338098</v>
+        <v>57.52717449021441</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024121613</v>
       </c>
       <c r="B5">
-        <v>5.134491900161584</v>
+        <v>23.10521355072713</v>
       </c>
       <c r="C5">
-        <v>0.7869501947762065</v>
+        <v>3.541275876492929</v>
       </c>
       <c r="D5">
-        <v>2.992646440338863</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="E5">
-        <v>1.517354466200503</v>
+        <v>6.828095097902262</v>
       </c>
       <c r="F5">
-        <v>2.54055603608872</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="G5">
-        <v>3.427858538804263</v>
+        <v>15.42536342461918</v>
       </c>
       <c r="H5">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I5">
-        <v>16.62644689743552</v>
+        <v>74.81901103845983</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024121614</v>
       </c>
       <c r="B6">
-        <v>5.391675752048032</v>
+        <v>24.26254088421614</v>
       </c>
       <c r="C6">
-        <v>0.4823243129273524</v>
+        <v>2.170459408173086</v>
       </c>
       <c r="D6">
-        <v>2.826388304764481</v>
+        <v>12.71874737144017</v>
       </c>
       <c r="E6">
-        <v>1.601651936544975</v>
+        <v>7.207433714452388</v>
       </c>
       <c r="F6">
-        <v>2.656035855910935</v>
+        <v>11.95216135159921</v>
       </c>
       <c r="G6">
-        <v>3.149924062684998</v>
+        <v>14.17465828208249</v>
       </c>
       <c r="H6">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I6">
-        <v>16.24395381752</v>
+        <v>73.09779217884001</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024121615</v>
       </c>
       <c r="B7">
-        <v>5.318194651509049</v>
+        <v>23.93187593179072</v>
       </c>
       <c r="C7">
-        <v>0.990034116008776</v>
+        <v>4.455153522039491</v>
       </c>
       <c r="D7">
-        <v>2.161355762466957</v>
+        <v>9.726100931101303</v>
       </c>
       <c r="E7">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F7">
-        <v>2.54055603608872</v>
+        <v>11.43250216239924</v>
       </c>
       <c r="G7">
-        <v>3.05727923731191</v>
+        <v>13.75775656790359</v>
       </c>
       <c r="H7">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I7">
-        <v>16.22651268429198</v>
+        <v>73.0193070793139</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024121616</v>
       </c>
       <c r="B8">
-        <v>6.21833813311162</v>
+        <v>27.98252159900228</v>
       </c>
       <c r="C8">
-        <v>1.116961566779132</v>
+        <v>5.026327050506093</v>
       </c>
       <c r="D8">
-        <v>2.992646440338863</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="E8">
-        <v>2.10743675861181</v>
+        <v>9.483465413753141</v>
       </c>
       <c r="F8">
-        <v>1.893869045084319</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="G8">
-        <v>2.316120634327204</v>
+        <v>10.42254285447242</v>
       </c>
       <c r="H8">
-        <v>0.3172250494915323</v>
+        <v>1.427512722711895</v>
       </c>
       <c r="I8">
-        <v>16.96259762774448</v>
+        <v>76.33168932485013</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,25 +641,25 @@
         <v>2024121617</v>
       </c>
       <c r="B9">
-        <v>7.201147852820538</v>
+        <v>32.40516533769243</v>
       </c>
       <c r="C9">
-        <v>0.3046258818488541</v>
+        <v>1.370816468319844</v>
       </c>
       <c r="D9">
-        <v>1.828839491318194</v>
+        <v>8.229777710931875</v>
       </c>
       <c r="E9">
-        <v>1.854544347578393</v>
+        <v>8.345449564102768</v>
       </c>
       <c r="F9">
-        <v>1.408853801831018</v>
+        <v>6.33984210823958</v>
       </c>
       <c r="G9">
-        <v>1.945541332834851</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="I9">
-        <v>14.54355270823185</v>
+        <v>65.44598718704333</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024121618</v>
       </c>
       <c r="B10">
-        <v>6.879668037962479</v>
+        <v>30.95850617083117</v>
       </c>
       <c r="C10">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="D10">
-        <v>1.745710423531003</v>
+        <v>7.855696905889514</v>
       </c>
       <c r="E10">
-        <v>3.034708932401005</v>
+        <v>13.65619019580452</v>
       </c>
       <c r="F10">
-        <v>1.131702234257703</v>
+        <v>5.092660054159663</v>
       </c>
       <c r="G10">
-        <v>1.01909307910397</v>
+        <v>4.585918855967866</v>
       </c>
       <c r="H10">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I10">
-        <v>14.03389900254773</v>
+        <v>63.15254551146482</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024121619</v>
       </c>
       <c r="B11">
-        <v>4.96915942394887</v>
+        <v>22.36121740776992</v>
       </c>
       <c r="C11">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="D11">
-        <v>1.41319415238224</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="E11">
-        <v>2.528924110334171</v>
+        <v>11.38015849650377</v>
       </c>
       <c r="F11">
-        <v>0.5081112072177443</v>
+        <v>2.286500432479849</v>
       </c>
       <c r="G11">
-        <v>1.574962031342499</v>
+        <v>7.087329141041244</v>
       </c>
       <c r="H11">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I11">
-        <v>11.19198173036303</v>
+        <v>50.36391778663364</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024121620</v>
       </c>
       <c r="B12">
-        <v>4.463976857743345</v>
+        <v>20.08789585984506</v>
       </c>
       <c r="C12">
-        <v>0.4569388227732812</v>
+        <v>2.056224702479765</v>
       </c>
       <c r="D12">
-        <v>1.246936016807859</v>
+        <v>5.611212075635371</v>
       </c>
       <c r="E12">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F12">
-        <v>0.4850152432533013</v>
+        <v>2.182568594639855</v>
       </c>
       <c r="G12">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="H12">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I12">
-        <v>9.723722462104936</v>
+        <v>43.75675107947223</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024121621</v>
       </c>
       <c r="B13">
-        <v>3.25153869885009</v>
+        <v>14.63192414482541</v>
       </c>
       <c r="C13">
-        <v>0.1015419606162847</v>
+        <v>0.4569388227732812</v>
       </c>
       <c r="D13">
-        <v>1.080677881233478</v>
+        <v>4.863050465550652</v>
       </c>
       <c r="E13">
-        <v>2.191734228956281</v>
+        <v>9.862804030303268</v>
       </c>
       <c r="F13">
-        <v>0.3695354234310867</v>
+        <v>1.66290940543989</v>
       </c>
       <c r="G13">
-        <v>0.7411586029847055</v>
+        <v>3.335213713431174</v>
       </c>
       <c r="H13">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I13">
-        <v>7.781504660285004</v>
+        <v>35.01677097128252</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024121622</v>
       </c>
       <c r="B14">
-        <v>1.671695037261912</v>
+        <v>7.522627667678602</v>
       </c>
       <c r="C14">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D14">
-        <v>0.4156453389359533</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="E14">
-        <v>1.433056995856031</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="F14">
-        <v>0.2771515675733149</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="G14">
-        <v>0.2779344761192645</v>
+        <v>1.25070514253669</v>
       </c>
       <c r="I14">
-        <v>4.126254396054618</v>
+        <v>18.56814478224578</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,25 +809,25 @@
         <v>2024121623</v>
       </c>
       <c r="B15">
-        <v>1.359400359971225</v>
+        <v>6.117301619870513</v>
       </c>
       <c r="C15">
-        <v>0.1776984310784983</v>
+        <v>0.7996429398532422</v>
       </c>
       <c r="D15">
-        <v>0.6650325422975251</v>
+        <v>2.992646440338863</v>
       </c>
       <c r="E15">
-        <v>0.5057848220668343</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="F15">
-        <v>0.6928789189332873</v>
+        <v>3.117955135199794</v>
       </c>
       <c r="G15">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I15">
-        <v>3.864019201212812</v>
+        <v>17.38808640545765</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -835,19 +835,19 @@
         <v>2024121700</v>
       </c>
       <c r="B16">
-        <v>1.11140164565215</v>
+        <v>5.001307405434676</v>
       </c>
       <c r="C16">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="F16">
-        <v>0.3002475315377579</v>
+        <v>1.351113891919911</v>
       </c>
       <c r="G16">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I16">
-        <v>2.027186244979776</v>
+        <v>9.122338102408991</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -855,22 +855,22 @@
         <v>2024121701</v>
       </c>
       <c r="B17">
-        <v>0.6062190794466272</v>
+        <v>2.727985857509822</v>
       </c>
       <c r="C17">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D17">
-        <v>0.2493872033615719</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="F17">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="G17">
-        <v>0.1852896507461764</v>
+        <v>0.8338034283577934</v>
       </c>
       <c r="I17">
-        <v>1.274145099388433</v>
+        <v>5.733652947247947</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -878,22 +878,22 @@
         <v>2024121702</v>
       </c>
       <c r="B18">
-        <v>0.4776271535034033</v>
+        <v>2.149322190765315</v>
       </c>
       <c r="C18">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D18">
-        <v>0.08312906778719063</v>
+        <v>0.3740808050423579</v>
       </c>
       <c r="F18">
-        <v>0.1154798198222146</v>
+        <v>0.5196591891999656</v>
       </c>
       <c r="G18">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="I18">
-        <v>1.072200832759233</v>
+        <v>4.824903747416545</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,25 +901,25 @@
         <v>2024121703</v>
       </c>
       <c r="B19">
-        <v>0.4592568783686573</v>
+        <v>2.066655952658956</v>
       </c>
       <c r="C19">
-        <v>0.1269274507703559</v>
+        <v>0.5711735284666014</v>
       </c>
       <c r="D19">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="E19">
-        <v>0.3371898813778896</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="F19">
-        <v>0.2771515675733149</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="G19">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="I19">
-        <v>1.737363215156952</v>
+        <v>7.81813446820628</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -927,19 +927,19 @@
         <v>2024121704</v>
       </c>
       <c r="B20">
-        <v>0.8450326561983288</v>
+        <v>3.80264695289248</v>
       </c>
       <c r="C20">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F20">
-        <v>0.2540556036088721</v>
+        <v>1.143250216239925</v>
       </c>
       <c r="G20">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="I20">
-        <v>1.983662668473137</v>
+        <v>8.926482008129117</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -947,28 +947,28 @@
         <v>2024121705</v>
       </c>
       <c r="B21">
-        <v>2.847392645885673</v>
+        <v>12.81326690648553</v>
       </c>
       <c r="C21">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D21">
-        <v>1.828839491318194</v>
+        <v>8.229777710931875</v>
       </c>
       <c r="E21">
-        <v>0.5057848220668343</v>
+        <v>2.276031699300755</v>
       </c>
       <c r="F21">
-        <v>0.8545506666843882</v>
+        <v>3.845478000079746</v>
       </c>
       <c r="G21">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="H21">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I21">
-        <v>7.037163253201249</v>
+        <v>31.66723463940562</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -976,28 +976,28 @@
         <v>2024121706</v>
       </c>
       <c r="B22">
-        <v>4.877308048275138</v>
+        <v>21.94788621723812</v>
       </c>
       <c r="C22">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D22">
-        <v>2.410742965828528</v>
+        <v>10.84834334622838</v>
       </c>
       <c r="E22">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F22">
-        <v>1.524333621653233</v>
+        <v>6.859501297439547</v>
       </c>
       <c r="G22">
-        <v>2.871989586565733</v>
+        <v>12.9239531395458</v>
       </c>
       <c r="H22">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I22">
-        <v>14.75626001905446</v>
+        <v>66.40317008574505</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1005,28 +1005,28 @@
         <v>2024121707</v>
       </c>
       <c r="B23">
-        <v>6.301004371217977</v>
+        <v>28.35451967048089</v>
       </c>
       <c r="C23">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D23">
-        <v>1.163806949020669</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="E23">
-        <v>2.697519051023117</v>
+        <v>12.13883572960402</v>
       </c>
       <c r="F23">
-        <v>0.900742594613274</v>
+        <v>4.053341675759731</v>
       </c>
       <c r="G23">
-        <v>1.482317205969411</v>
+        <v>6.670427426862347</v>
       </c>
       <c r="H23">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I23">
-        <v>12.71218237073281</v>
+        <v>57.20482066829764</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1034,28 +1034,28 @@
         <v>2024121708</v>
       </c>
       <c r="B24">
-        <v>6.108116482303138</v>
+        <v>27.48652417036413</v>
       </c>
       <c r="C24">
-        <v>0.4061678424651389</v>
+        <v>1.827755291093125</v>
       </c>
       <c r="D24">
-        <v>1.995097626892575</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="E24">
-        <v>2.360329169645226</v>
+        <v>10.62148126340352</v>
       </c>
       <c r="F24">
-        <v>1.247182054079917</v>
+        <v>5.612319243359629</v>
       </c>
       <c r="G24">
-        <v>2.686699935819557</v>
+        <v>12.090149711188</v>
       </c>
       <c r="H24">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I24">
-        <v>14.93954670384478</v>
+        <v>67.22796016730153</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1063,28 +1063,28 @@
         <v>2024121709</v>
       </c>
       <c r="B25">
-        <v>5.281454101239555</v>
+        <v>23.766543455578</v>
       </c>
       <c r="C25">
-        <v>0.558480783389566</v>
+        <v>2.513163525253046</v>
       </c>
       <c r="D25">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E25">
-        <v>3.87768363584573</v>
+        <v>17.44957636130578</v>
       </c>
       <c r="F25">
-        <v>2.240308504550963</v>
+        <v>10.08138827047933</v>
       </c>
       <c r="G25">
-        <v>2.686699935819557</v>
+        <v>12.090149711188</v>
       </c>
       <c r="H25">
-        <v>0.4078607779176843</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="I25">
-        <v>16.63194002671968</v>
+        <v>74.84373012023855</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1092,28 +1092,28 @@
         <v>2024121710</v>
       </c>
       <c r="B26">
-        <v>4.454791720175972</v>
+        <v>20.04656274079188</v>
       </c>
       <c r="C26">
-        <v>0.4315533326192101</v>
+        <v>1.941989996786445</v>
       </c>
       <c r="D26">
-        <v>1.995097626892575</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="E26">
-        <v>1.938841817922865</v>
+        <v>8.724788180652892</v>
       </c>
       <c r="F26">
-        <v>2.517460072124278</v>
+        <v>11.32857032455925</v>
       </c>
       <c r="G26">
-        <v>6.392492950743085</v>
+        <v>28.76621827834387</v>
       </c>
       <c r="H26">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I26">
-        <v>17.86619111311721</v>
+        <v>80.39786000902747</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1121,28 +1121,28 @@
         <v>2024121711</v>
       </c>
       <c r="B27">
-        <v>4.206793005856898</v>
+        <v>18.93056852635604</v>
       </c>
       <c r="C27">
-        <v>0.6600227440058506</v>
+        <v>2.970102348026328</v>
       </c>
       <c r="D27">
-        <v>1.995097626892575</v>
+        <v>8.977939321016589</v>
       </c>
       <c r="E27">
-        <v>1.685949406889448</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="F27">
-        <v>2.748419711768707</v>
+        <v>12.36788870295918</v>
       </c>
       <c r="G27">
-        <v>5.836623998504554</v>
+        <v>26.26480799327049</v>
       </c>
       <c r="H27">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I27">
-        <v>17.22354222234418</v>
+        <v>77.50594000054885</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1150,28 +1150,28 @@
         <v>2024121712</v>
       </c>
       <c r="B28">
-        <v>4.160867318020034</v>
+        <v>18.72390293109015</v>
       </c>
       <c r="C28">
-        <v>0.279240391694783</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="D28">
-        <v>1.163806949020669</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="E28">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F28">
-        <v>1.478141693724347</v>
+        <v>6.651637621759559</v>
       </c>
       <c r="G28">
-        <v>3.149924062684998</v>
+        <v>14.17465828208249</v>
       </c>
       <c r="H28">
-        <v>0.1359535926392281</v>
+        <v>0.6117911668765267</v>
       </c>
       <c r="I28">
-        <v>12.3910732960514</v>
+        <v>55.75982983223129</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1179,28 +1179,28 @@
         <v>2024121713</v>
       </c>
       <c r="B29">
-        <v>5.143677037728955</v>
+        <v>23.14654666978031</v>
       </c>
       <c r="C29">
-        <v>0.7869501947762065</v>
+        <v>3.541275876492929</v>
       </c>
       <c r="D29">
-        <v>3.740808050423579</v>
+        <v>16.8336362269061</v>
       </c>
       <c r="E29">
-        <v>2.528924110334171</v>
+        <v>11.38015849650377</v>
       </c>
       <c r="F29">
-        <v>2.425076216266507</v>
+        <v>10.91284297319928</v>
       </c>
       <c r="G29">
-        <v>4.724886094027497</v>
+        <v>21.26198742312373</v>
       </c>
       <c r="H29">
-        <v>0.3625429137046082</v>
+        <v>1.631443111670737</v>
       </c>
       <c r="I29">
-        <v>19.71286461726152</v>
+        <v>88.70789077767685</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1208,28 +1208,28 @@
         <v>2024121714</v>
       </c>
       <c r="B30">
-        <v>4.583383646119198</v>
+        <v>20.62522640753638</v>
       </c>
       <c r="C30">
-        <v>0.3807823523110677</v>
+        <v>1.713520585399804</v>
       </c>
       <c r="D30">
-        <v>2.992646440338863</v>
+        <v>13.46690898152488</v>
       </c>
       <c r="E30">
-        <v>1.348759525511558</v>
+        <v>6.069417864802011</v>
       </c>
       <c r="F30">
-        <v>2.702227783839822</v>
+        <v>12.16002502727919</v>
       </c>
       <c r="G30">
-        <v>2.316120634327204</v>
+        <v>10.42254285447242</v>
       </c>
       <c r="H30">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I30">
-        <v>14.50519183930002</v>
+        <v>65.27336327685005</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1237,28 +1237,28 @@
         <v>2024121715</v>
       </c>
       <c r="B31">
-        <v>5.474341990154393</v>
+        <v>24.63453895569476</v>
       </c>
       <c r="C31">
-        <v>0.6600227440058506</v>
+        <v>2.970102348026328</v>
       </c>
       <c r="D31">
-        <v>2.909517372551673</v>
+        <v>13.09282817648253</v>
       </c>
       <c r="E31">
-        <v>1.685949406889448</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="F31">
-        <v>2.309596396444292</v>
+        <v>10.39318378399931</v>
       </c>
       <c r="G31">
-        <v>3.242568888058086</v>
+        <v>14.59155999626138</v>
       </c>
       <c r="H31">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I31">
-        <v>16.50858611916912</v>
+        <v>74.28863753626104</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1266,28 +1266,28 @@
         <v>2024121716</v>
       </c>
       <c r="B32">
-        <v>6.356115196622215</v>
+        <v>28.60251838479996</v>
       </c>
       <c r="C32">
-        <v>0.9392631357006338</v>
+        <v>4.226684110652851</v>
       </c>
       <c r="D32">
-        <v>2.743259236977292</v>
+        <v>12.34466656639781</v>
       </c>
       <c r="E32">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F32">
-        <v>1.893869045084319</v>
+        <v>8.522410702879437</v>
       </c>
       <c r="G32">
-        <v>4.169017141788967</v>
+        <v>18.76057713805035</v>
       </c>
       <c r="H32">
-        <v>0.2265893210653802</v>
+        <v>1.019651944794211</v>
       </c>
       <c r="I32">
-        <v>18.35125236550615</v>
+        <v>82.58063564477764</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1295,25 +1295,25 @@
         <v>2024121717</v>
       </c>
       <c r="B33">
-        <v>7.311369503629018</v>
+        <v>32.90116276633059</v>
       </c>
       <c r="C33">
-        <v>0.2284694113866406</v>
+        <v>1.028112351239883</v>
       </c>
       <c r="D33">
-        <v>1.33006508459505</v>
+        <v>5.985292880677726</v>
       </c>
       <c r="E33">
-        <v>1.685949406889448</v>
+        <v>7.586772331002512</v>
       </c>
       <c r="F33">
-        <v>1.224086090115475</v>
+        <v>5.508387405519635</v>
       </c>
       <c r="G33">
-        <v>1.760251682088676</v>
+        <v>7.921132569399039</v>
       </c>
       <c r="I33">
-        <v>13.5401911787043</v>
+        <v>60.93086030416939</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1321,28 +1321,28 @@
         <v>2024121718</v>
       </c>
       <c r="B34">
-        <v>7.586923630650213</v>
+        <v>34.14115633792596</v>
       </c>
       <c r="C34">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D34">
-        <v>1.163806949020669</v>
+        <v>5.23713127059301</v>
       </c>
       <c r="E34">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F34">
-        <v>1.247182054079917</v>
+        <v>5.612319243359629</v>
       </c>
       <c r="G34">
-        <v>0.6485137776116173</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="H34">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I34">
-        <v>13.76363007230731</v>
+        <v>61.93633532538292</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1350,28 +1350,28 @@
         <v>2024121719</v>
       </c>
       <c r="B35">
-        <v>5.309009513941675</v>
+        <v>23.89054281273754</v>
       </c>
       <c r="C35">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D35">
-        <v>1.080677881233478</v>
+        <v>4.863050465550652</v>
       </c>
       <c r="E35">
-        <v>2.276031699300755</v>
+        <v>10.2421426468534</v>
       </c>
       <c r="F35">
-        <v>0.6466869910044017</v>
+        <v>2.910091459519808</v>
       </c>
       <c r="G35">
-        <v>1.945541332834851</v>
+        <v>8.754935997756828</v>
       </c>
       <c r="H35">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I35">
-        <v>11.42473961720353</v>
+        <v>51.41132827741587</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1379,28 +1379,28 @@
         <v>2024121720</v>
       </c>
       <c r="B36">
-        <v>5.051825662055226</v>
+        <v>22.73321547924851</v>
       </c>
       <c r="C36">
-        <v>0.152312940924427</v>
+        <v>0.6854082341599218</v>
       </c>
       <c r="D36">
-        <v>0.7481616100847157</v>
+        <v>3.36672724538122</v>
       </c>
       <c r="E36">
-        <v>2.781816521367589</v>
+        <v>12.51817434615415</v>
       </c>
       <c r="F36">
-        <v>0.5543031351466299</v>
+        <v>2.494364108159835</v>
       </c>
       <c r="G36">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="H36">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I36">
-        <v>10.21285902636253</v>
+        <v>45.95786561863139</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1408,28 +1408,28 @@
         <v>2024121721</v>
       </c>
       <c r="B37">
-        <v>3.563833376140778</v>
+        <v>16.03725019263351</v>
       </c>
       <c r="C37">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D37">
-        <v>0.9144197456590971</v>
+        <v>4.114888855465938</v>
       </c>
       <c r="E37">
-        <v>2.023139288267337</v>
+        <v>9.104126797203021</v>
       </c>
       <c r="F37">
-        <v>0.7390708468621734</v>
+        <v>3.32581881087978</v>
       </c>
       <c r="G37">
-        <v>0.926448253730882</v>
+        <v>4.169017141788967</v>
       </c>
       <c r="H37">
-        <v>0.09063572842615206</v>
+        <v>0.4078607779176843</v>
       </c>
       <c r="I37">
-        <v>8.308318219394563</v>
+        <v>37.38743198727554</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024121722</v>
       </c>
       <c r="B38">
-        <v>1.837027513474629</v>
+        <v>8.266623810635824</v>
       </c>
       <c r="C38">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="D38">
-        <v>0.4156453389359533</v>
+        <v>1.870404025211789</v>
       </c>
       <c r="E38">
-        <v>1.433056995856031</v>
+        <v>6.448756481352135</v>
       </c>
       <c r="F38">
-        <v>0.3233434955022009</v>
+        <v>1.455045729759904</v>
       </c>
       <c r="G38">
-        <v>0.463224126865441</v>
+        <v>2.084508570894484</v>
       </c>
       <c r="I38">
-        <v>4.523068450942398</v>
+        <v>20.35380802924078</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,25 +1463,25 @@
         <v>2024121723</v>
       </c>
       <c r="B39">
-        <v>1.589028799155554</v>
+        <v>7.15062959619999</v>
       </c>
       <c r="C39">
-        <v>0.279240391694783</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="D39">
-        <v>0.7481616100847157</v>
+        <v>3.36672724538122</v>
       </c>
       <c r="E39">
-        <v>0.3371898813778896</v>
+        <v>1.517354466200503</v>
       </c>
       <c r="F39">
-        <v>0.5081112072177443</v>
+        <v>2.286500432479849</v>
       </c>
       <c r="G39">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="I39">
-        <v>3.832311191023039</v>
+        <v>17.24540035960367</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,19 +1489,19 @@
         <v>2024121800</v>
       </c>
       <c r="B40">
-        <v>1.221623296460628</v>
+        <v>5.497304834072823</v>
       </c>
       <c r="C40">
-        <v>0.279240391694783</v>
+        <v>1.256581762626523</v>
       </c>
       <c r="F40">
-        <v>0.3926313873955297</v>
+        <v>1.766841243279883</v>
       </c>
       <c r="G40">
-        <v>0.6485137776116173</v>
+        <v>2.918311999252277</v>
       </c>
       <c r="I40">
-        <v>2.542008853162558</v>
+        <v>11.43903983923151</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1509,22 +1509,22 @@
         <v>2024121801</v>
       </c>
       <c r="B41">
-        <v>0.7531812805245975</v>
+        <v>3.389315762360688</v>
       </c>
       <c r="C41">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D41">
-        <v>0.2493872033615719</v>
+        <v>1.122242415127074</v>
       </c>
       <c r="F41">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="G41">
-        <v>0.2779344761192645</v>
+        <v>1.25070514253669</v>
       </c>
       <c r="I41">
-        <v>1.513752125839491</v>
+        <v>6.81188456627771</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1532,22 +1532,22 @@
         <v>2024121802</v>
       </c>
       <c r="B42">
-        <v>0.6429596297161194</v>
+        <v>2.893318333722538</v>
       </c>
       <c r="C42">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D42">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="F42">
-        <v>0.1154798198222146</v>
+        <v>0.5196591891999656</v>
       </c>
       <c r="G42">
-        <v>0.3705793014923527</v>
+        <v>1.667606856715587</v>
       </c>
       <c r="I42">
-        <v>1.320662376759139</v>
+        <v>5.942980695416127</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1555,25 +1555,25 @@
         <v>2024121803</v>
       </c>
       <c r="B43">
-        <v>0.4684420159360303</v>
+        <v>2.107989071712135</v>
       </c>
       <c r="C43">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D43">
-        <v>0.1662581355743813</v>
+        <v>0.7481616100847157</v>
       </c>
       <c r="E43">
-        <v>0.1685949406889448</v>
+        <v>0.7586772331002514</v>
       </c>
       <c r="F43">
-        <v>0.2078636756799862</v>
+        <v>0.9353865405599382</v>
       </c>
       <c r="G43">
-        <v>0.5558689522385291</v>
+        <v>2.50141028507338</v>
       </c>
       <c r="I43">
-        <v>1.643184190580085</v>
+        <v>7.394328857610382</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1581,19 +1581,19 @@
         <v>2024121804</v>
       </c>
       <c r="B44">
-        <v>0.835847518630956</v>
+        <v>3.761313833839301</v>
       </c>
       <c r="C44">
-        <v>0.05077098030814236</v>
+        <v>0.2284694113866406</v>
       </c>
       <c r="F44">
-        <v>0.2771515675733149</v>
+        <v>1.247182054079917</v>
       </c>
       <c r="G44">
-        <v>1.01909307910397</v>
+        <v>4.585918855967866</v>
       </c>
       <c r="I44">
-        <v>2.182863145616383</v>
+        <v>9.822884155273726</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1601,28 +1601,28 @@
         <v>2024121805</v>
       </c>
       <c r="B45">
-        <v>2.86576292102042</v>
+        <v>12.89593314459189</v>
       </c>
       <c r="C45">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D45">
-        <v>0.9975488134462875</v>
+        <v>4.488969660508294</v>
       </c>
       <c r="E45">
-        <v>0.4214873517223619</v>
+        <v>1.896693082750628</v>
       </c>
       <c r="F45">
-        <v>1.154798198222146</v>
+        <v>5.196591891999656</v>
       </c>
       <c r="G45">
-        <v>0.8338034283577934</v>
+        <v>3.752115427610072</v>
       </c>
       <c r="H45">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I45">
-        <v>6.530828640083526</v>
+        <v>29.38872888037587</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1630,28 +1630,28 @@
         <v>2024121806</v>
       </c>
       <c r="B46">
-        <v>5.033455386920482</v>
+        <v>22.65054924114217</v>
       </c>
       <c r="C46">
-        <v>0.02538549015407118</v>
+        <v>0.1142347056933203</v>
       </c>
       <c r="D46">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E46">
-        <v>2.950411462056533</v>
+        <v>13.2768515792544</v>
       </c>
       <c r="F46">
-        <v>1.547429585617676</v>
+        <v>6.963433135279539</v>
       </c>
       <c r="G46">
-        <v>3.798437840296615</v>
+        <v>17.09297028133476</v>
       </c>
       <c r="H46">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I46">
-        <v>14.97988991721508</v>
+        <v>67.40950462746784</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1659,28 +1659,28 @@
         <v>2024121807</v>
       </c>
       <c r="B47">
-        <v>6.411226022026455</v>
+        <v>28.85051709911903</v>
       </c>
       <c r="C47">
-        <v>0.07615647046221352</v>
+        <v>0.3427041170799609</v>
       </c>
       <c r="D47">
-        <v>1.41319415238224</v>
+        <v>6.359373685720086</v>
       </c>
       <c r="E47">
-        <v>2.528924110334171</v>
+        <v>11.38015849650377</v>
       </c>
       <c r="F47">
-        <v>0.8083587387555022</v>
+        <v>3.637614324399759</v>
       </c>
       <c r="G47">
-        <v>1.667606856715587</v>
+        <v>7.504230855220143</v>
       </c>
       <c r="H47">
-        <v>0.04531786421307603</v>
+        <v>0.2039303889588422</v>
       </c>
       <c r="I47">
-        <v>12.95078421488924</v>
+        <v>58.2785289670016</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1688,28 +1688,28 @@
         <v>2024121808</v>
       </c>
       <c r="B48">
-        <v>5.860117767984064</v>
+        <v>26.37052995592828</v>
       </c>
       <c r="C48">
-        <v>0.4315533326192101</v>
+        <v>1.941989996786445</v>
       </c>
       <c r="D48">
-        <v>2.244484830254147</v>
+        <v>10.10018173614366</v>
       </c>
       <c r="E48">
-        <v>2.613221580678643</v>
+        <v>11.7594971130539</v>
       </c>
       <c r="F48">
-        <v>1.293373982008803</v>
+        <v>5.820182919039616</v>
       </c>
       <c r="G48">
-        <v>2.408765459700292</v>
+        <v>10.83944456865131</v>
       </c>
       <c r="H48">
-        <v>0.1812714568523041</v>
+        <v>0.8157215558353687</v>
       </c>
       <c r="I48">
-        <v>15.03278841009746</v>
+        <v>67.64754784543858</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1717,28 +1717,28 @@
         <v>2024121809</v>
       </c>
       <c r="B49">
-        <v>5.281454101239555</v>
+        <v>23.766543455578</v>
       </c>
       <c r="C49">
-        <v>0.558480783389566</v>
+        <v>2.513163525253046</v>
       </c>
       <c r="D49">
-        <v>1.579452287956622</v>
+        <v>7.1075352958048</v>
       </c>
       <c r="E49">
-        <v>3.87768363584573</v>
+        <v>17.44957636130578</v>
       </c>
       <c r="F49">
-        <v>2.240308504550963</v>
+        <v>10.08138827047933</v>
       </c>
       <c r="G49">
-        <v>2.686699935819557</v>
+        <v>12.090149711188</v>
       </c>
       <c r="H49">
-        <v>0.4078607779176843</v>
+        <v>1.835373500629579</v>
       </c>
       <c r="I49">
-        <v>16.63194002671968</v>
+        <v>74.84373012023855</v>
       </c>
     </row>
   </sheetData>
